--- a/output/table_2.xlsx
+++ b/output/table_2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="309">
   <si>
     <t xml:space="preserve">Characteristic
 </t>
@@ -48,30 +48,30 @@
     <t xml:space="preserve">     Chinese</t>
   </si>
   <si>
+    <t xml:space="preserve">Marital status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     single</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     married</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     divorced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     widow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Bangkok</t>
+  </si>
+  <si>
     <t xml:space="preserve">     others</t>
   </si>
   <si>
-    <t xml:space="preserve">Marital status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     single</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     married</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     divorced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     widow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Bangkok</t>
-  </si>
-  <si>
     <t xml:space="preserve">Education</t>
   </si>
   <si>
@@ -153,10 +153,7 @@
     <t xml:space="preserve">     Bedbound</t>
   </si>
   <si>
-    <t xml:space="preserve">Hearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Hearing aid</t>
+    <t xml:space="preserve">PatientHearing</t>
   </si>
   <si>
     <t xml:space="preserve">     Hearing impairment</t>
@@ -362,132 +359,135 @@
     <t xml:space="preserve">23.5 (21.3, 25.7)</t>
   </si>
   <si>
-    <t xml:space="preserve">262 (96%)</t>
+    <t xml:space="preserve">263 (97%)</t>
   </si>
   <si>
     <t xml:space="preserve">9 (3.3%)</t>
   </si>
   <si>
+    <t xml:space="preserve">50 (18%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">172 (63%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 (3.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40 (15%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">182 (67%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90 (33%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (1.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36 (13%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42 (15%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">191 (70%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 (0%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">93 (34%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23 (8.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 (8.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">132 (49%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52 (19%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44 (16%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66 (24%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60 (22%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">221 (87%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 (7.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 (5.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">260 (96%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 (4.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">257 (94%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 (5.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100 (37%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">234 (86%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (2.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32 (12%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">247 (91%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22 (8.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">255 (94%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 (2.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115 (42%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">155 (57%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (0.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">230 (85%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35 (13%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (1.8%)</t>
+  </si>
+  <si>
     <t xml:space="preserve">1 (0.4%)</t>
   </si>
   <si>
-    <t xml:space="preserve">50 (18%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">172 (63%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 (3.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40 (15%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">182 (67%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90 (33%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (1.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36 (13%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42 (15%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">191 (70%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 (0%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">93 (34%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23 (8.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24 (8.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">132 (49%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52 (19%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44 (16%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66 (24%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60 (22%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">221 (87%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20 (7.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13 (5.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">260 (96%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 (4.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">255 (94%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (0.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15 (5.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100 (37%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">234 (86%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (2.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32 (12%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">247 (91%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22 (8.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 (2.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115 (42%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">155 (57%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">230 (85%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35 (13%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (1.8%)</t>
-  </si>
-  <si>
     <t xml:space="preserve">111 (41%)</t>
   </si>
   <si>
@@ -534,9 +534,6 @@
   </si>
   <si>
     <t xml:space="preserve">75 (28%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">257 (94%)</t>
   </si>
   <si>
     <t xml:space="preserve">186 (68%)</t>
@@ -600,7 +597,7 @@
     <t xml:space="preserve">156 (151, 163)</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4 (21.2, 25.7)</t>
+    <t xml:space="preserve">23.4 (21.2, 25.6)</t>
   </si>
   <si>
     <t xml:space="preserve">226 (97%)</t>
@@ -681,7 +678,7 @@
     <t xml:space="preserve">9 (3.9%)</t>
   </si>
   <si>
-    <t xml:space="preserve">221 (95%)</t>
+    <t xml:space="preserve">223 (96%)</t>
   </si>
   <si>
     <t xml:space="preserve">10 (4.3%)</t>
@@ -926,6 +923,9 @@
     <t xml:space="preserve">20.9 (19.9, 22.0)</t>
   </si>
   <si>
+    <t xml:space="preserve">5 (83%)</t>
+  </si>
+  <si>
     <t xml:space="preserve">1 (17%)</t>
   </si>
   <si>
@@ -933,9 +933,6 @@
   </si>
   <si>
     <t xml:space="preserve">3 (50%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (83%)</t>
   </si>
   <si>
     <t xml:space="preserve">11 (9, 13)</t>
@@ -1401,19 +1398,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="2" ht="NA" customHeight="1">
@@ -1421,16 +1418,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F2" s="7" t="n">
         <v>0.02</v>
@@ -1441,19 +1438,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="4" ht="NA" customHeight="1">
@@ -1461,19 +1458,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" ht="NA" customHeight="1">
@@ -1481,19 +1478,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" ht="NA" customHeight="1">
@@ -1501,16 +1498,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F6" s="8" t="n">
         <v>0.3</v>
@@ -1521,16 +1518,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F7" s="8" t="n">
         <v>0.3</v>
@@ -1541,19 +1538,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F8" s="8" t="n">
-        <v>0.019</v>
+        <v>0.017</v>
       </c>
     </row>
     <row r="9" ht="NA" customHeight="1">
@@ -1561,19 +1558,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F9" s="8" t="n">
-        <v>0.01</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="10" ht="NA" customHeight="1">
@@ -1581,19 +1578,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" ht="NA" customHeight="1">
@@ -1601,19 +1598,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>302</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" ht="NA" customHeight="1">
@@ -1621,19 +1618,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
+      </c>
+      <c r="F12" s="8" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="13" ht="NA" customHeight="1">
@@ -1641,19 +1638,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>109</v>
+        <v>196</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>109</v>
+        <v>271</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="F13" s="8" t="n">
-        <v>0.5</v>
+        <v>126</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="14" ht="NA" customHeight="1">
@@ -1661,7 +1658,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>197</v>
@@ -1670,10 +1667,10 @@
         <v>272</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>128</v>
+        <v>297</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" ht="NA" customHeight="1">
@@ -1681,7 +1678,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>198</v>
@@ -1690,10 +1687,10 @@
         <v>273</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>298</v>
+        <v>126</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" ht="NA" customHeight="1">
@@ -1701,7 +1698,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>199</v>
@@ -1710,10 +1707,10 @@
         <v>274</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>128</v>
+        <v>296</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" ht="NA" customHeight="1">
@@ -1721,19 +1718,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>200</v>
+        <v>108</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>275</v>
+        <v>108</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
+      </c>
+      <c r="F17" s="8" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="18" ht="NA" customHeight="1">
@@ -1741,19 +1738,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>109</v>
+        <v>200</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>109</v>
+        <v>265</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="F18" s="8" t="n">
-        <v>0.2</v>
+        <v>303</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="19" ht="NA" customHeight="1">
@@ -1761,187 +1758,187 @@
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>201</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>303</v>
+        <v>126</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" ht="NA" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>202</v>
+        <v>108</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>265</v>
+        <v>108</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
+      </c>
+      <c r="F20" s="8" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="21" ht="NA" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>109</v>
+        <v>202</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>109</v>
+        <v>270</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="F21" s="8" t="n">
-        <v>0.12</v>
+        <v>126</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="22" ht="NA" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>203</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>128</v>
+        <v>302</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" ht="NA" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>204</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>302</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" ht="NA" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>205</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" ht="NA" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>277</v>
+        <v>126</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>298</v>
+        <v>126</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" ht="NA" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
+      </c>
+      <c r="F26" s="8" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="27" ht="NA" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>109</v>
+        <v>206</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>109</v>
+        <v>276</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="F27" s="8" t="n">
-        <v>0.3</v>
+        <v>302</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="28" ht="NA" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>207</v>
@@ -1953,95 +1950,95 @@
         <v>302</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" ht="NA" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>208</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>302</v>
+        <v>126</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" ht="NA" customHeight="1">
       <c r="A30" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>209</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>128</v>
+        <v>297</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" ht="NA" customHeight="1">
       <c r="A31" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>210</v>
+        <v>108</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>279</v>
+        <v>108</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
+      </c>
+      <c r="F31" s="8" t="n">
+        <v>0.076</v>
       </c>
     </row>
     <row r="32" ht="NA" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>109</v>
+        <v>210</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>109</v>
+        <v>278</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="F32" s="8" t="n">
-        <v>0.067</v>
+        <v>302</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="33" ht="NA" customHeight="1">
       <c r="A33" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>211</v>
@@ -2050,158 +2047,158 @@
         <v>279</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" ht="NA" customHeight="1">
       <c r="A34" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>212</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>304</v>
+        <v>126</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" ht="NA" customHeight="1">
       <c r="A35" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>213</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" ht="NA" customHeight="1">
       <c r="A36" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>214</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>128</v>
+        <v>296</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37" ht="NA" customHeight="1">
       <c r="A37" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>215</v>
+        <v>108</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>265</v>
+        <v>108</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
+      </c>
+      <c r="F37" s="8" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="38" ht="NA" customHeight="1">
       <c r="A38" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>109</v>
+        <v>215</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>109</v>
+        <v>280</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="F38" s="8" t="n">
-        <v>0.2</v>
+        <v>301</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="39" ht="NA" customHeight="1">
       <c r="A39" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>216</v>
+        <v>126</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>281</v>
+        <v>126</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>305</v>
+        <v>126</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40" ht="NA" customHeight="1">
       <c r="A40" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>128</v>
+        <v>216</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>128</v>
+        <v>281</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>128</v>
+        <v>302</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="41" ht="NA" customHeight="1">
       <c r="A41" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>217</v>
@@ -2210,210 +2207,210 @@
         <v>282</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>302</v>
+        <v>126</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42" ht="NA" customHeight="1">
       <c r="A42" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>128</v>
+        <v>41</v>
+      </c>
+      <c r="B42" s="8" t="n">
+        <v>18</v>
+      </c>
+      <c r="C42" s="8" t="n">
+        <v>14</v>
+      </c>
+      <c r="D42" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="E42" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43" ht="NA" customHeight="1">
       <c r="A43" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43" s="8" t="n">
-        <v>18</v>
-      </c>
-      <c r="C43" s="8" t="n">
-        <v>14</v>
-      </c>
-      <c r="D43" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="E43" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>109</v>
+        <v>42</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F43" s="8" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="44" ht="NA" customHeight="1">
       <c r="A44" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>109</v>
+        <v>218</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>109</v>
+        <v>283</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="F44" s="8" t="n">
-        <v>0.4</v>
+        <v>303</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="45" ht="NA" customHeight="1">
       <c r="A45" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>219</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>303</v>
+        <v>126</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="46" ht="NA" customHeight="1">
       <c r="A46" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>220</v>
+        <v>126</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>278</v>
+        <v>126</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="47" ht="NA" customHeight="1">
       <c r="A47" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
+      </c>
+      <c r="F47" s="8" t="n">
+        <v>0.078</v>
       </c>
     </row>
     <row r="48" ht="NA" customHeight="1">
       <c r="A48" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>109</v>
+        <v>220</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>109</v>
+        <v>284</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="F48" s="8" t="n">
-        <v>0.14</v>
+        <v>301</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="49" ht="NA" customHeight="1">
       <c r="A49" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>221</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50" ht="NA" customHeight="1">
       <c r="A50" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>203</v>
+        <v>108</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
+      </c>
+      <c r="F50" s="8" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="51" ht="NA" customHeight="1">
       <c r="A51" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>222</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="52" ht="NA" customHeight="1">
@@ -2421,319 +2418,319 @@
         <v>49</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>109</v>
+        <v>223</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>109</v>
+        <v>264</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="F52" s="8" t="n">
-        <v>0.5</v>
+        <v>296</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="53" ht="NA" customHeight="1">
       <c r="A53" s="3" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>223</v>
+        <v>126</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>266</v>
+        <v>126</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>298</v>
+        <v>126</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="54" ht="NA" customHeight="1">
       <c r="A54" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>145</v>
+        <v>108</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>224</v>
+        <v>108</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>265</v>
+        <v>108</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="F54" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
+      </c>
+      <c r="F54" s="8" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="55" ht="NA" customHeight="1">
       <c r="A55" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>128</v>
+        <v>224</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>128</v>
+        <v>285</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>128</v>
+        <v>303</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="56" ht="NA" customHeight="1">
       <c r="A56" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>109</v>
+        <v>225</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>109</v>
+        <v>270</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="F56" s="8" t="n">
-        <v>0.5</v>
+        <v>126</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="57" ht="NA" customHeight="1">
       <c r="A57" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>303</v>
+        <v>126</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="58" ht="NA" customHeight="1">
       <c r="A58" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>226</v>
+        <v>108</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>271</v>
+        <v>108</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="F58" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
+      </c>
+      <c r="F58" s="8" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="59" ht="NA" customHeight="1">
       <c r="A59" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C59" s="8" t="s">
         <v>227</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>128</v>
+        <v>303</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="60" ht="NA" customHeight="1">
       <c r="A60" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>109</v>
+        <v>147</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>109</v>
+        <v>207</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>109</v>
+        <v>277</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="F60" s="8" t="n">
-        <v>0.5</v>
+        <v>126</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="61" ht="NA" customHeight="1">
       <c r="A61" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>303</v>
+        <v>126</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="62" ht="NA" customHeight="1">
       <c r="A62" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>150</v>
+        <v>108</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>208</v>
+        <v>108</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>278</v>
+        <v>108</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="F62" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
+      </c>
+      <c r="F62" s="8" t="n">
+        <v>0.034</v>
       </c>
     </row>
     <row r="63" ht="NA" customHeight="1">
       <c r="A63" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>128</v>
+        <v>301</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="64" ht="NA" customHeight="1">
       <c r="A64" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>109</v>
+        <v>195</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>109</v>
+        <v>273</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="F64" s="8" t="n">
-        <v>0.034</v>
+        <v>302</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="65" ht="NA" customHeight="1">
       <c r="A65" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>229</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>305</v>
+        <v>126</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="66" ht="NA" customHeight="1">
       <c r="A66" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>196</v>
+        <v>108</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>274</v>
+        <v>108</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="F66" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
+      </c>
+      <c r="F66" s="8" t="n">
+        <v>0.003</v>
       </c>
     </row>
     <row r="67" ht="NA" customHeight="1">
       <c r="A67" s="3" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>230</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>128</v>
+        <v>302</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="68" ht="NA" customHeight="1">
@@ -2741,359 +2738,359 @@
         <v>64</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>109</v>
+        <v>151</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>109</v>
+        <v>231</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>109</v>
+        <v>285</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="F68" s="8" t="n">
-        <v>0.002</v>
+        <v>297</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="69" ht="NA" customHeight="1">
       <c r="A69" s="3" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="B69" s="8" t="s">
         <v>152</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>231</v>
+        <v>156</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>275</v>
+        <v>126</v>
       </c>
       <c r="E69" s="8" t="s">
         <v>302</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="70" ht="NA" customHeight="1">
       <c r="A70" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B70" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="71" ht="NA" customHeight="1">
+      <c r="A71" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B71" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="C70" s="8" t="s">
+      <c r="C71" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="D70" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="E70" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="F70" s="8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="71" ht="NA" customHeight="1">
-      <c r="A71" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>117</v>
-      </c>
       <c r="D71" s="8" t="s">
-        <v>128</v>
+        <v>287</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="72" ht="NA" customHeight="1">
-      <c r="A72" s="3" t="s">
-        <v>67</v>
+      <c r="A72" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>109</v>
+        <v>154</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>109</v>
+        <v>233</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>109</v>
+        <v>264</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="F72" s="8" t="n">
-        <v>0.004</v>
+        <v>296</v>
+      </c>
+      <c r="F72" s="8" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="73" ht="NA" customHeight="1">
       <c r="A73" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>288</v>
+        <v>126</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>298</v>
+        <v>126</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="74" ht="NA" customHeight="1">
       <c r="A74" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>234</v>
+        <v>126</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>297</v>
+        <v>126</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="75" ht="NA" customHeight="1">
-      <c r="A75" s="3" t="n">
-        <v>2</v>
+      <c r="A75" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="B75" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F75" s="8" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="76" ht="NA" customHeight="1">
+      <c r="A76" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B76" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="C75" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="D75" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E75" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="F75" s="8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="76" ht="NA" customHeight="1">
-      <c r="A76" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B76" s="8" t="s">
-        <v>143</v>
-      </c>
       <c r="C76" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="77" ht="NA" customHeight="1">
       <c r="A77" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>109</v>
+        <v>202</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>109</v>
+        <v>270</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>109</v>
+        <v>304</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>309</v>
+        <v>108</v>
       </c>
     </row>
     <row r="78" ht="NA" customHeight="1">
       <c r="A78" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>117</v>
+        <v>157</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>128</v>
+        <v>234</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>128</v>
+        <v>302</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="79" ht="NA" customHeight="1">
       <c r="A79" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>203</v>
+        <v>235</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="80" ht="NA" customHeight="1">
       <c r="A80" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>235</v>
+        <v>208</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>288</v>
+        <v>126</v>
       </c>
       <c r="E80" s="8" t="s">
         <v>302</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="81" ht="NA" customHeight="1">
       <c r="A81" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>158</v>
+        <v>108</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>236</v>
+        <v>108</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>265</v>
+        <v>108</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="F81" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
+      </c>
+      <c r="F81" s="8" t="n">
+        <v>0.071</v>
       </c>
     </row>
     <row r="82" ht="NA" customHeight="1">
       <c r="A82" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>128</v>
+        <v>285</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="83" ht="NA" customHeight="1">
       <c r="A83" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>109</v>
+        <v>160</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>109</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>109</v>
+        <v>274</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="F83" s="8" t="n">
-        <v>0.055</v>
+        <v>296</v>
+      </c>
+      <c r="F83" s="8" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="84" ht="NA" customHeight="1">
       <c r="A84" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>159</v>
+        <v>108</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>237</v>
+        <v>108</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>286</v>
+        <v>108</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="F84" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
+      </c>
+      <c r="F84" s="8" t="n">
+        <v>0.6</v>
       </c>
     </row>
     <row r="85" ht="NA" customHeight="1">
       <c r="A85" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C85" s="8" t="s">
         <v>238</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="86" ht="NA" customHeight="1">
@@ -3101,59 +3098,59 @@
         <v>77</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>109</v>
+        <v>162</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>109</v>
+        <v>239</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>109</v>
+        <v>284</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="F86" s="8" t="n">
-        <v>0.6</v>
+        <v>301</v>
+      </c>
+      <c r="F86" s="8" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="87" ht="NA" customHeight="1">
       <c r="A87" s="3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>161</v>
+        <v>108</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>239</v>
+        <v>108</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>280</v>
+        <v>108</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="F87" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
+      </c>
+      <c r="F87" s="8" t="n">
+        <v>0.006</v>
       </c>
     </row>
     <row r="88" ht="NA" customHeight="1">
       <c r="A88" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C88" s="8" t="s">
         <v>240</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="89" ht="NA" customHeight="1">
@@ -3161,59 +3158,59 @@
         <v>79</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>109</v>
+        <v>164</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>109</v>
+        <v>241</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>109</v>
+        <v>277</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="F89" s="8" t="n">
-        <v>0.005</v>
+        <v>304</v>
+      </c>
+      <c r="F89" s="8" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="90" ht="NA" customHeight="1">
       <c r="A90" s="3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>163</v>
+        <v>108</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>241</v>
+        <v>108</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>284</v>
+        <v>108</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="F90" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
+      </c>
+      <c r="F90" s="8" t="n">
+        <v>0.004</v>
       </c>
     </row>
     <row r="91" ht="NA" customHeight="1">
       <c r="A91" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C91" s="8" t="s">
         <v>242</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="92" ht="NA" customHeight="1">
@@ -3221,59 +3218,59 @@
         <v>81</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>109</v>
+        <v>243</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>109</v>
+        <v>274</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="F92" s="8" t="n">
-        <v>0.003</v>
+        <v>301</v>
+      </c>
+      <c r="F92" s="8" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="93" ht="NA" customHeight="1">
       <c r="A93" s="3" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>165</v>
+        <v>108</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>243</v>
+        <v>108</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>286</v>
+        <v>108</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="F93" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
+      </c>
+      <c r="F93" s="8" t="n">
+        <v>0.014</v>
       </c>
     </row>
     <row r="94" ht="NA" customHeight="1">
       <c r="A94" s="3" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="E94" s="8" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="95" ht="NA" customHeight="1">
@@ -3281,59 +3278,59 @@
         <v>83</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>109</v>
+        <v>147</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>109</v>
+        <v>241</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>109</v>
+        <v>271</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="F95" s="8" t="n">
-        <v>0.021</v>
+        <v>296</v>
+      </c>
+      <c r="F95" s="8" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="96" ht="NA" customHeight="1">
       <c r="A96" s="3" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>167</v>
+        <v>108</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>241</v>
+        <v>108</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>287</v>
+        <v>108</v>
       </c>
       <c r="E96" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="F96" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
+      </c>
+      <c r="F96" s="8" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="97" ht="NA" customHeight="1">
       <c r="A97" s="3" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="98" ht="NA" customHeight="1">
@@ -3341,59 +3338,59 @@
         <v>85</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>109</v>
+        <v>169</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>109</v>
+        <v>214</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>109</v>
+        <v>278</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="F98" s="8" t="n">
-        <v>0.3</v>
+        <v>302</v>
+      </c>
+      <c r="F98" s="8" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="99" ht="NA" customHeight="1">
       <c r="A99" s="3" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>168</v>
+        <v>108</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>245</v>
+        <v>108</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>288</v>
+        <v>108</v>
       </c>
       <c r="E99" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="F99" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
+      </c>
+      <c r="F99" s="8" t="n">
+        <v>0.014</v>
       </c>
     </row>
     <row r="100" ht="NA" customHeight="1">
       <c r="A100" s="3" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>169</v>
+        <v>117</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>215</v>
+        <v>245</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="E100" s="8" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="101" ht="NA" customHeight="1">
@@ -3401,59 +3398,59 @@
         <v>87</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>109</v>
+        <v>246</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>109</v>
+        <v>289</v>
       </c>
       <c r="E101" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="F101" s="8" t="n">
-        <v>0.011</v>
+        <v>297</v>
+      </c>
+      <c r="F101" s="8" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="102" ht="NA" customHeight="1">
       <c r="A102" s="3" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>246</v>
+        <v>108</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>289</v>
+        <v>108</v>
       </c>
       <c r="E102" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="F102" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
+      </c>
+      <c r="F102" s="8" t="n">
+        <v>0.7</v>
       </c>
     </row>
     <row r="103" ht="NA" customHeight="1">
       <c r="A103" s="3" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="C103" s="8" t="s">
         <v>247</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="E103" s="8" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="104" ht="NA" customHeight="1">
@@ -3461,59 +3458,59 @@
         <v>89</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>109</v>
+        <v>207</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>109</v>
+        <v>279</v>
       </c>
       <c r="E104" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="F104" s="8" t="n">
-        <v>0.7</v>
+        <v>126</v>
+      </c>
+      <c r="F104" s="8" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="105" ht="NA" customHeight="1">
       <c r="A105" s="3" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>170</v>
+        <v>108</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>248</v>
+        <v>108</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>285</v>
+        <v>108</v>
       </c>
       <c r="E105" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="F105" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
+      </c>
+      <c r="F105" s="8" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="106" ht="NA" customHeight="1">
       <c r="A106" s="3" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>130</v>
+        <v>171</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>208</v>
+        <v>248</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="E106" s="8" t="s">
-        <v>128</v>
+        <v>296</v>
       </c>
       <c r="F106" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="107" ht="NA" customHeight="1">
@@ -3521,59 +3518,59 @@
         <v>91</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>109</v>
+        <v>172</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>109</v>
+        <v>213</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>109</v>
+        <v>264</v>
       </c>
       <c r="E107" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="F107" s="8" t="n">
-        <v>0.13</v>
+        <v>297</v>
+      </c>
+      <c r="F107" s="8" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="108" ht="NA" customHeight="1">
       <c r="A108" s="3" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>171</v>
+        <v>108</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>249</v>
+        <v>108</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>266</v>
+        <v>108</v>
       </c>
       <c r="E108" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="F108" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
+      </c>
+      <c r="F108" s="8" t="n">
+        <v>0.002</v>
       </c>
     </row>
     <row r="109" ht="NA" customHeight="1">
       <c r="A109" s="3" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>172</v>
+        <v>140</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="E109" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F109" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="110" ht="NA" customHeight="1">
@@ -3581,1025 +3578,985 @@
         <v>93</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>109</v>
+        <v>219</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>109</v>
+        <v>279</v>
       </c>
       <c r="E110" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="F110" s="8" t="n">
-        <v>0.006</v>
+        <v>296</v>
+      </c>
+      <c r="F110" s="8" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="111" ht="NA" customHeight="1">
       <c r="A111" s="3" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="B111" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E111" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F111" s="8" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="112" ht="NA" customHeight="1">
+      <c r="A112" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B112" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="C111" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="D111" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="E111" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="F111" s="8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="112" ht="NA" customHeight="1">
-      <c r="A112" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B112" s="8" t="s">
-        <v>144</v>
-      </c>
       <c r="C112" s="8" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="E112" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F112" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="113" ht="NA" customHeight="1">
-      <c r="A113" s="3" t="s">
-        <v>95</v>
+      <c r="A113" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="B113" s="8" t="s">
         <v>109</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>109</v>
+        <v>250</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>109</v>
+        <v>290</v>
       </c>
       <c r="E113" s="8" t="s">
-        <v>109</v>
+        <v>302</v>
       </c>
       <c r="F113" s="8" t="s">
-        <v>309</v>
+        <v>108</v>
       </c>
     </row>
     <row r="114" ht="NA" customHeight="1">
       <c r="A114" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="E114" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F114" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="115" ht="NA" customHeight="1">
       <c r="A115" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>110</v>
+        <v>152</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>251</v>
+        <v>126</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="E115" s="8" t="s">
         <v>302</v>
       </c>
       <c r="F115" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="116" ht="NA" customHeight="1">
-      <c r="A116" s="3" t="n">
-        <v>2</v>
+      <c r="A116" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>252</v>
+        <v>108</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>271</v>
+        <v>108</v>
       </c>
       <c r="E116" s="8" t="s">
-        <v>297</v>
+        <v>108</v>
       </c>
       <c r="F116" s="8" t="s">
-        <v>109</v>
+        <v>308</v>
       </c>
     </row>
     <row r="117" ht="NA" customHeight="1">
       <c r="A117" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>128</v>
+        <v>252</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="E117" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="F117" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="118" ht="NA" customHeight="1">
+      <c r="A118" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="D118" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="E118" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="F117" s="8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="118" ht="NA" customHeight="1">
-      <c r="A118" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B118" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C118" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="D118" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="E118" s="8" t="s">
-        <v>109</v>
-      </c>
       <c r="F118" s="8" t="s">
-        <v>309</v>
+        <v>108</v>
       </c>
     </row>
     <row r="119" ht="NA" customHeight="1">
       <c r="A119" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B119" s="8" t="s">
         <v>175</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>253</v>
+        <v>156</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="E119" s="8" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="F119" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="120" ht="NA" customHeight="1">
       <c r="A120" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>166</v>
+        <v>126</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>254</v>
+        <v>126</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>277</v>
+        <v>126</v>
       </c>
       <c r="E120" s="8" t="s">
-        <v>302</v>
+        <v>126</v>
       </c>
       <c r="F120" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="121" ht="NA" customHeight="1">
-      <c r="A121" s="3" t="n">
-        <v>2</v>
+      <c r="A121" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>176</v>
+        <v>108</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>271</v>
+        <v>108</v>
       </c>
       <c r="E121" s="8" t="s">
-        <v>297</v>
+        <v>108</v>
       </c>
       <c r="F121" s="8" t="s">
-        <v>109</v>
+        <v>308</v>
       </c>
     </row>
     <row r="122" ht="NA" customHeight="1">
       <c r="A122" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>128</v>
+        <v>176</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>128</v>
+        <v>254</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>128</v>
+        <v>275</v>
       </c>
       <c r="E122" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F122" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="123" ht="NA" customHeight="1">
-      <c r="A123" s="3" t="s">
-        <v>97</v>
+      <c r="A123" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>109</v>
+        <v>177</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>109</v>
+        <v>255</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>109</v>
+        <v>288</v>
       </c>
       <c r="E123" s="8" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="F123" s="8" t="s">
-        <v>309</v>
+        <v>108</v>
       </c>
     </row>
     <row r="124" ht="NA" customHeight="1">
       <c r="A124" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>177</v>
+        <v>128</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E124" s="8" t="s">
-        <v>128</v>
+        <v>296</v>
       </c>
       <c r="F124" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="125" ht="NA" customHeight="1">
       <c r="A125" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B125" s="8" t="s">
         <v>178</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="E125" s="8" t="s">
-        <v>128</v>
+        <v>297</v>
       </c>
       <c r="F125" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="126" ht="NA" customHeight="1">
-      <c r="A126" s="3" t="n">
-        <v>2</v>
+      <c r="A126" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>242</v>
+        <v>108</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>276</v>
+        <v>108</v>
       </c>
       <c r="E126" s="8" t="s">
-        <v>297</v>
+        <v>108</v>
       </c>
       <c r="F126" s="8" t="s">
-        <v>109</v>
+        <v>308</v>
       </c>
     </row>
     <row r="127" ht="NA" customHeight="1">
       <c r="A127" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B127" s="8" t="s">
         <v>179</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="E127" s="8" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="F127" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="128" ht="NA" customHeight="1">
-      <c r="A128" s="3" t="s">
-        <v>98</v>
+      <c r="A128" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>109</v>
+        <v>180</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>109</v>
+        <v>204</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>109</v>
+        <v>291</v>
       </c>
       <c r="E128" s="8" t="s">
-        <v>109</v>
+        <v>302</v>
       </c>
       <c r="F128" s="8" t="s">
-        <v>309</v>
+        <v>108</v>
       </c>
     </row>
     <row r="129" ht="NA" customHeight="1">
       <c r="A129" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>257</v>
+        <v>156</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E129" s="8" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F129" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="130" ht="NA" customHeight="1">
       <c r="A130" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="E130" s="8" t="s">
         <v>302</v>
       </c>
       <c r="F130" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="131" ht="NA" customHeight="1">
-      <c r="A131" s="3" t="n">
-        <v>2</v>
+      <c r="A131" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>179</v>
+        <v>108</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>265</v>
+        <v>108</v>
       </c>
       <c r="E131" s="8" t="s">
-        <v>304</v>
+        <v>108</v>
       </c>
       <c r="F131" s="8" t="s">
-        <v>109</v>
+        <v>308</v>
       </c>
     </row>
     <row r="132" ht="NA" customHeight="1">
       <c r="A132" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>203</v>
+        <v>257</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="E132" s="8" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="F132" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="133" ht="NA" customHeight="1">
-      <c r="A133" s="3" t="s">
-        <v>99</v>
+      <c r="A133" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>109</v>
+        <v>182</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>109</v>
+        <v>258</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>109</v>
+        <v>291</v>
       </c>
       <c r="E133" s="8" t="s">
-        <v>109</v>
+        <v>296</v>
       </c>
       <c r="F133" s="8" t="s">
-        <v>309</v>
+        <v>108</v>
       </c>
     </row>
     <row r="134" ht="NA" customHeight="1">
       <c r="A134" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>258</v>
+        <v>202</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="E134" s="8" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="F134" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="135" ht="NA" customHeight="1">
       <c r="A135" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>183</v>
+        <v>155</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>259</v>
+        <v>156</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="E135" s="8" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="F135" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="136" ht="NA" customHeight="1">
-      <c r="A136" s="3" t="n">
-        <v>2</v>
+      <c r="A136" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>184</v>
+        <v>108</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>203</v>
+        <v>108</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>272</v>
+        <v>108</v>
       </c>
       <c r="E136" s="8" t="s">
-        <v>302</v>
+        <v>108</v>
       </c>
       <c r="F136" s="8" t="s">
-        <v>109</v>
+        <v>308</v>
       </c>
     </row>
     <row r="137" ht="NA" customHeight="1">
       <c r="A137" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>156</v>
+        <v>184</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>117</v>
+        <v>194</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="E137" s="8" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F137" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="138" ht="NA" customHeight="1">
-      <c r="A138" s="3" t="s">
-        <v>100</v>
+      <c r="A138" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>109</v>
+        <v>195</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>109</v>
+        <v>275</v>
       </c>
       <c r="E138" s="8" t="s">
-        <v>109</v>
+        <v>296</v>
       </c>
       <c r="F138" s="8" t="s">
-        <v>309</v>
+        <v>108</v>
       </c>
     </row>
     <row r="139" ht="NA" customHeight="1">
       <c r="A139" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>185</v>
+        <v>122</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>195</v>
+        <v>126</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="E139" s="8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F139" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="140" ht="NA" customHeight="1">
       <c r="A140" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>196</v>
+        <v>126</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>276</v>
+        <v>126</v>
       </c>
       <c r="E140" s="8" t="s">
-        <v>297</v>
+        <v>126</v>
       </c>
       <c r="F140" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="141" ht="NA" customHeight="1">
-      <c r="A141" s="3" t="n">
-        <v>2</v>
+      <c r="A141" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>274</v>
+        <v>108</v>
       </c>
       <c r="E141" s="8" t="s">
-        <v>302</v>
+        <v>108</v>
       </c>
       <c r="F141" s="8" t="s">
-        <v>109</v>
+        <v>308</v>
       </c>
     </row>
     <row r="142" ht="NA" customHeight="1">
       <c r="A142" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>128</v>
+        <v>167</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>128</v>
+        <v>194</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>128</v>
+        <v>287</v>
       </c>
       <c r="E142" s="8" t="s">
-        <v>128</v>
+        <v>296</v>
       </c>
       <c r="F142" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="143" ht="NA" customHeight="1">
-      <c r="A143" s="3" t="s">
-        <v>101</v>
+      <c r="A143" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>109</v>
+        <v>185</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>109</v>
+        <v>195</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>109</v>
+        <v>278</v>
       </c>
       <c r="E143" s="8" t="s">
-        <v>109</v>
+        <v>296</v>
       </c>
       <c r="F143" s="8" t="s">
-        <v>309</v>
+        <v>108</v>
       </c>
     </row>
     <row r="144" ht="NA" customHeight="1">
       <c r="A144" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>195</v>
+        <v>126</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>288</v>
+        <v>126</v>
       </c>
       <c r="E144" s="8" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="F144" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="145" ht="NA" customHeight="1">
       <c r="A145" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>196</v>
+        <v>126</v>
       </c>
       <c r="D145" s="8" t="s">
-        <v>279</v>
+        <v>126</v>
       </c>
       <c r="E145" s="8" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="F145" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="146" ht="NA" customHeight="1">
-      <c r="A146" s="3" t="n">
-        <v>2</v>
+      <c r="A146" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="E146" s="8" t="s">
-        <v>302</v>
+        <v>108</v>
       </c>
       <c r="F146" s="8" t="s">
-        <v>109</v>
+        <v>308</v>
       </c>
     </row>
     <row r="147" ht="NA" customHeight="1">
       <c r="A147" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>117</v>
+        <v>184</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>128</v>
+        <v>259</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>128</v>
+        <v>265</v>
       </c>
       <c r="E147" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="F147" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="148" ht="NA" customHeight="1">
+      <c r="A148" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B148" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C148" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="D148" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="E148" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="F147" s="8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="148" ht="NA" customHeight="1">
-      <c r="A148" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B148" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C148" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="D148" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="E148" s="8" t="s">
-        <v>109</v>
-      </c>
       <c r="F148" s="8" t="s">
-        <v>309</v>
+        <v>108</v>
       </c>
     </row>
     <row r="149" ht="NA" customHeight="1">
       <c r="A149" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>185</v>
+        <v>152</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>260</v>
+        <v>126</v>
       </c>
       <c r="D149" s="8" t="s">
-        <v>266</v>
+        <v>126</v>
       </c>
       <c r="E149" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F149" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="150" ht="NA" customHeight="1">
       <c r="A150" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>226</v>
+        <v>126</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>265</v>
+        <v>126</v>
       </c>
       <c r="E150" s="8" t="s">
         <v>302</v>
       </c>
       <c r="F150" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="151" ht="NA" customHeight="1">
-      <c r="A151" s="3" t="n">
-        <v>2</v>
+      <c r="A151" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="D151" s="8" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="E151" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="F151" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
+      </c>
+      <c r="F151" s="8" t="n">
+        <v>0.004</v>
       </c>
     </row>
     <row r="152" ht="NA" customHeight="1">
       <c r="A152" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>117</v>
+        <v>186</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>128</v>
+        <v>260</v>
       </c>
       <c r="D152" s="8" t="s">
-        <v>128</v>
+        <v>292</v>
       </c>
       <c r="E152" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="F152" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="153" ht="NA" customHeight="1">
+      <c r="A153" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B153" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C153" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D153" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="E153" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="F152" s="8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="153" ht="NA" customHeight="1">
-      <c r="A153" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B153" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C153" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="D153" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="E153" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="F153" s="8" t="n">
-        <v>0.004</v>
+      <c r="F153" s="8" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="154" ht="NA" customHeight="1">
       <c r="A154" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>187</v>
+        <v>126</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>261</v>
+        <v>126</v>
       </c>
       <c r="D154" s="8" t="s">
-        <v>293</v>
+        <v>126</v>
       </c>
       <c r="E154" s="8" t="s">
-        <v>305</v>
+        <v>126</v>
       </c>
       <c r="F154" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="155" ht="NA" customHeight="1">
       <c r="A155" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>176</v>
+        <v>126</v>
       </c>
       <c r="C155" s="8" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="D155" s="8" t="s">
-        <v>274</v>
+        <v>126</v>
       </c>
       <c r="E155" s="8" t="s">
-        <v>302</v>
+        <v>126</v>
       </c>
       <c r="F155" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="156" ht="NA" customHeight="1">
-      <c r="A156" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B156" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="C156" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="D156" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E156" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="F156" s="8" t="s">
-        <v>109</v>
+      <c r="A156" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B156" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="C156" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="D156" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="E156" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="F156" s="9" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="157" ht="NA" customHeight="1">
-      <c r="A157" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B157" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="C157" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="D157" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E157" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="F157" s="8" t="s">
-        <v>109</v>
+      <c r="A157" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D157" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E157" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F157" s="5" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="158" ht="NA" customHeight="1">
-      <c r="A158" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B158" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="C158" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="D158" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="E158" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="F158" s="9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="159" ht="NA" customHeight="1">
-      <c r="A159" s="5" t="s">
+      <c r="A158" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B159" s="5" t="s">
+      <c r="B158" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C159" s="5" t="s">
+      <c r="C158" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D159" s="5" t="s">
+      <c r="D158" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E159" s="5" t="s">
+      <c r="E158" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="F159" s="5" t="s">
+      <c r="F158" s="3" t="s">
         <v>105</v>
-      </c>
-    </row>
-    <row r="160" ht="NA" customHeight="1">
-      <c r="A160" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B160" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C160" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D160" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E160" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="F160" s="3" t="s">
-        <v>106</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A159:F159"/>
-    <mergeCell ref="A160:F160"/>
+    <mergeCell ref="A157:F157"/>
+    <mergeCell ref="A158:F158"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/output/table_2.xlsx
+++ b/output/table_2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="302">
   <si>
     <t xml:space="preserve">Characteristic
 </t>
@@ -129,16 +129,13 @@
     <t xml:space="preserve">     Same</t>
   </si>
   <si>
-    <t xml:space="preserve">     Less than 50%</t>
+    <t xml:space="preserve">     Less than 50% loss</t>
   </si>
   <si>
     <t xml:space="preserve">     Over 50% loss</t>
   </si>
   <si>
     <t xml:space="preserve">     No income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Unknown</t>
   </si>
   <si>
     <t xml:space="preserve">Ambulation</t>
@@ -422,13 +419,16 @@
     <t xml:space="preserve">60 (22%)</t>
   </si>
   <si>
-    <t xml:space="preserve">221 (87%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20 (7.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13 (5.1%)</t>
+    <t xml:space="preserve">221 (81%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18 (6.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 (7.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 (4.8%)</t>
   </si>
   <si>
     <t xml:space="preserve">260 (96%)</t>
@@ -551,9 +551,6 @@
     <t xml:space="preserve">65 (24%)</t>
   </si>
   <si>
-    <t xml:space="preserve">13 (4.8%)</t>
-  </si>
-  <si>
     <t xml:space="preserve">208 (76%)</t>
   </si>
   <si>
@@ -570,9 +567,6 @@
   </si>
   <si>
     <t xml:space="preserve">254 (93%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20 (7.4%)</t>
   </si>
   <si>
     <t xml:space="preserve">268 (99%)</t>
@@ -663,13 +657,16 @@
     <t xml:space="preserve">49 (21%)</t>
   </si>
   <si>
-    <t xml:space="preserve">194 (89%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15 (6.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 (4.6%)</t>
+    <t xml:space="preserve">194 (83%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 (6.0%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 (6.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 (4.3%)</t>
   </si>
   <si>
     <t xml:space="preserve">224 (96%)</t>
@@ -681,9 +678,6 @@
     <t xml:space="preserve">223 (96%)</t>
   </si>
   <si>
-    <t xml:space="preserve">10 (4.3%)</t>
-  </si>
-  <si>
     <t xml:space="preserve">144 (62%)</t>
   </si>
   <si>
@@ -741,9 +735,6 @@
     <t xml:space="preserve">218 (94%)</t>
   </si>
   <si>
-    <t xml:space="preserve">15 (6.4%)</t>
-  </si>
-  <si>
     <t xml:space="preserve">189 (81%)</t>
   </si>
   <si>
@@ -772,9 +763,6 @@
   </si>
   <si>
     <t xml:space="preserve">3 (1.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">194 (83%)</t>
   </si>
   <si>
     <t xml:space="preserve">38 (16%)</t>
@@ -859,13 +847,7 @@
     <t xml:space="preserve">4 (12%)</t>
   </si>
   <si>
-    <t xml:space="preserve">22 (76%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (14%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (10%)</t>
+    <t xml:space="preserve">22 (67%)</t>
   </si>
   <si>
     <t xml:space="preserve">30 (91%)</t>
@@ -878,9 +860,6 @@
   </si>
   <si>
     <t xml:space="preserve">28 (85%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22 (67%)</t>
   </si>
   <si>
     <t xml:space="preserve">15 (45%)</t>
@@ -1398,19 +1377,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
     </row>
     <row r="2" ht="NA" customHeight="1">
@@ -1418,16 +1397,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="F2" s="7" t="n">
         <v>0.02</v>
@@ -1438,19 +1417,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" ht="NA" customHeight="1">
@@ -1458,19 +1437,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" ht="NA" customHeight="1">
@@ -1478,19 +1457,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" ht="NA" customHeight="1">
@@ -1498,16 +1477,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="F6" s="8" t="n">
         <v>0.3</v>
@@ -1518,16 +1497,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="F7" s="8" t="n">
         <v>0.3</v>
@@ -1538,16 +1517,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="F8" s="8" t="n">
         <v>0.017</v>
@@ -1558,19 +1537,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F9" s="8" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="10" ht="NA" customHeight="1">
@@ -1578,19 +1557,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" ht="NA" customHeight="1">
@@ -1598,19 +1577,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" ht="NA" customHeight="1">
@@ -1618,16 +1597,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F12" s="8" t="n">
         <v>0.5</v>
@@ -1638,19 +1617,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" ht="NA" customHeight="1">
@@ -1658,19 +1637,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" ht="NA" customHeight="1">
@@ -1678,19 +1657,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" ht="NA" customHeight="1">
@@ -1698,19 +1677,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" ht="NA" customHeight="1">
@@ -1718,16 +1697,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F17" s="8" t="n">
         <v>0.2</v>
@@ -1738,19 +1717,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" ht="NA" customHeight="1">
@@ -1758,19 +1737,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" ht="NA" customHeight="1">
@@ -1778,16 +1757,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F20" s="8" t="n">
         <v>0.11</v>
@@ -1798,19 +1777,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" ht="NA" customHeight="1">
@@ -1818,19 +1797,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" ht="NA" customHeight="1">
@@ -1838,19 +1817,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" ht="NA" customHeight="1">
@@ -1858,19 +1837,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" ht="NA" customHeight="1">
@@ -1878,19 +1857,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" ht="NA" customHeight="1">
@@ -1898,16 +1877,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F26" s="8" t="n">
         <v>0.3</v>
@@ -1918,19 +1897,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" ht="NA" customHeight="1">
@@ -1938,19 +1917,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" ht="NA" customHeight="1">
@@ -1958,19 +1937,19 @@
         <v>28</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" ht="NA" customHeight="1">
@@ -1978,19 +1957,19 @@
         <v>29</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" ht="NA" customHeight="1">
@@ -1998,19 +1977,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F31" s="8" t="n">
-        <v>0.076</v>
+        <v>0.07</v>
       </c>
     </row>
     <row r="32" ht="NA" customHeight="1">
@@ -2018,19 +1997,19 @@
         <v>31</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" ht="NA" customHeight="1">
@@ -2038,19 +2017,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" ht="NA" customHeight="1">
@@ -2058,19 +2037,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" ht="NA" customHeight="1">
@@ -2078,19 +2057,19 @@
         <v>34</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" ht="NA" customHeight="1">
@@ -2098,19 +2077,19 @@
         <v>35</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37" ht="NA" customHeight="1">
@@ -2118,16 +2097,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F37" s="8" t="n">
         <v>0.2</v>
@@ -2138,19 +2117,19 @@
         <v>37</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="39" ht="NA" customHeight="1">
@@ -2158,19 +2137,19 @@
         <v>38</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>126</v>
+        <v>214</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>126</v>
+        <v>275</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40" ht="NA" customHeight="1">
@@ -2181,16 +2160,16 @@
         <v>136</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41" ht="NA" customHeight="1">
@@ -2201,36 +2180,36 @@
         <v>137</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42" ht="NA" customHeight="1">
       <c r="A42" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="8" t="n">
-        <v>18</v>
-      </c>
-      <c r="C42" s="8" t="n">
-        <v>14</v>
-      </c>
-      <c r="D42" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="E42" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>108</v>
+      <c r="B42" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F42" s="8" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="43" ht="NA" customHeight="1">
@@ -2238,19 +2217,19 @@
         <v>42</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>108</v>
+        <v>217</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>108</v>
+        <v>277</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="F43" s="8" t="n">
-        <v>0.4</v>
+        <v>296</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="44" ht="NA" customHeight="1">
@@ -2258,19 +2237,19 @@
         <v>43</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>218</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>303</v>
+        <v>125</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45" ht="NA" customHeight="1">
@@ -2278,19 +2257,19 @@
         <v>44</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>219</v>
+        <v>125</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>277</v>
+        <v>125</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="46" ht="NA" customHeight="1">
@@ -2298,59 +2277,59 @@
         <v>45</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
+      </c>
+      <c r="F46" s="8" t="n">
+        <v>0.078</v>
       </c>
     </row>
     <row r="47" ht="NA" customHeight="1">
       <c r="A47" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>108</v>
+        <v>219</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>108</v>
+        <v>278</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="F47" s="8" t="n">
-        <v>0.078</v>
+        <v>294</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="48" ht="NA" customHeight="1">
       <c r="A48" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="49" ht="NA" customHeight="1">
@@ -2358,59 +2337,59 @@
         <v>47</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>221</v>
+        <v>107</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>279</v>
+        <v>107</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
+      </c>
+      <c r="F49" s="8" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="50" ht="NA" customHeight="1">
       <c r="A50" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>108</v>
+        <v>220</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>108</v>
+        <v>261</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="F50" s="8" t="n">
-        <v>0.5</v>
+        <v>290</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="51" ht="NA" customHeight="1">
       <c r="A51" s="3" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="52" ht="NA" customHeight="1">
@@ -2418,19 +2397,19 @@
         <v>49</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>223</v>
+        <v>125</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>264</v>
+        <v>125</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>296</v>
+        <v>125</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="53" ht="NA" customHeight="1">
@@ -2438,19 +2417,19 @@
         <v>50</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="F53" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
+      </c>
+      <c r="F53" s="8" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="54" ht="NA" customHeight="1">
@@ -2458,19 +2437,19 @@
         <v>51</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>108</v>
+        <v>143</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>108</v>
+        <v>222</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>108</v>
+        <v>279</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="F54" s="8" t="n">
-        <v>0.5</v>
+        <v>296</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="55" ht="NA" customHeight="1">
@@ -2478,19 +2457,19 @@
         <v>52</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>303</v>
+        <v>125</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="56" ht="NA" customHeight="1">
@@ -2498,19 +2477,19 @@
         <v>53</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="57" ht="NA" customHeight="1">
@@ -2518,19 +2497,19 @@
         <v>54</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>226</v>
+        <v>107</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>275</v>
+        <v>107</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="F57" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
+      </c>
+      <c r="F57" s="8" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="58" ht="NA" customHeight="1">
@@ -2538,19 +2517,19 @@
         <v>55</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>108</v>
+        <v>146</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>108</v>
+        <v>225</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>108</v>
+        <v>278</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="F58" s="8" t="n">
-        <v>0.5</v>
+        <v>296</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="59" ht="NA" customHeight="1">
@@ -2558,19 +2537,19 @@
         <v>56</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>303</v>
+        <v>125</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="60" ht="NA" customHeight="1">
@@ -2578,19 +2557,19 @@
         <v>57</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="61" ht="NA" customHeight="1">
@@ -2598,19 +2577,19 @@
         <v>58</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>202</v>
+        <v>107</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>270</v>
+        <v>107</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="F61" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
+      </c>
+      <c r="F61" s="8" t="n">
+        <v>0.042</v>
       </c>
     </row>
     <row r="62" ht="NA" customHeight="1">
@@ -2618,19 +2597,19 @@
         <v>59</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>108</v>
+        <v>148</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>108</v>
+        <v>226</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>108</v>
+        <v>280</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="F62" s="8" t="n">
-        <v>0.034</v>
+        <v>294</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="63" ht="NA" customHeight="1">
@@ -2638,19 +2617,19 @@
         <v>60</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>228</v>
+        <v>193</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="64" ht="NA" customHeight="1">
@@ -2658,19 +2637,19 @@
         <v>61</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>195</v>
+        <v>227</v>
       </c>
       <c r="D64" s="8" t="s">
         <v>273</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>302</v>
+        <v>125</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="65" ht="NA" customHeight="1">
@@ -2678,59 +2657,59 @@
         <v>62</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>149</v>
+        <v>107</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>229</v>
+        <v>107</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>277</v>
+        <v>107</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="F65" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
+      </c>
+      <c r="F65" s="8" t="n">
+        <v>0.004</v>
       </c>
     </row>
     <row r="66" ht="NA" customHeight="1">
       <c r="A66" s="3" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>108</v>
+        <v>150</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>108</v>
+        <v>228</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>108</v>
+        <v>270</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="F66" s="8" t="n">
-        <v>0.003</v>
+        <v>295</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="67" ht="NA" customHeight="1">
       <c r="A67" s="3" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="68" ht="NA" customHeight="1">
@@ -2738,19 +2717,19 @@
         <v>64</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>231</v>
+        <v>156</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>285</v>
+        <v>125</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="69" ht="NA" customHeight="1">
@@ -2758,119 +2737,119 @@
         <v>65</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>152</v>
+        <v>107</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>156</v>
+        <v>107</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="F69" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
+      </c>
+      <c r="F69" s="8" t="n">
+        <v>0.004</v>
       </c>
     </row>
     <row r="70" ht="NA" customHeight="1">
-      <c r="A70" s="3" t="s">
-        <v>66</v>
+      <c r="A70" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>108</v>
+        <v>153</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>108</v>
+        <v>230</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>108</v>
+        <v>276</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>108</v>
+        <v>290</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>308</v>
+        <v>107</v>
       </c>
     </row>
     <row r="71" ht="NA" customHeight="1">
       <c r="A71" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>287</v>
+        <v>260</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="72" ht="NA" customHeight="1">
       <c r="A72" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>264</v>
+        <v>125</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>296</v>
+        <v>125</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="73" ht="NA" customHeight="1">
       <c r="A73" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>225</v>
+        <v>125</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>126</v>
+        <v>269</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="74" ht="NA" customHeight="1">
-      <c r="A74" s="3" t="n">
-        <v>3</v>
+      <c r="A74" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>152</v>
+        <v>107</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>273</v>
+        <v>107</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>108</v>
+        <v>301</v>
       </c>
     </row>
     <row r="75" ht="NA" customHeight="1">
@@ -2878,19 +2857,19 @@
         <v>67</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>108</v>
+        <v>156</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>108</v>
+        <v>266</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>308</v>
+        <v>107</v>
       </c>
     </row>
     <row r="76" ht="NA" customHeight="1">
@@ -2898,19 +2877,19 @@
         <v>68</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>126</v>
+        <v>200</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>126</v>
+        <v>297</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="77" ht="NA" customHeight="1">
@@ -2918,19 +2897,19 @@
         <v>69</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="78" ht="NA" customHeight="1">
@@ -2938,19 +2917,19 @@
         <v>70</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>287</v>
+        <v>260</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="79" ht="NA" customHeight="1">
@@ -2958,19 +2937,19 @@
         <v>71</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>158</v>
+        <v>127</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>235</v>
+        <v>206</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>264</v>
+        <v>125</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="80" ht="NA" customHeight="1">
@@ -2978,19 +2957,19 @@
         <v>72</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>208</v>
+        <v>107</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="F80" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
+      </c>
+      <c r="F80" s="8" t="n">
+        <v>0.062</v>
       </c>
     </row>
     <row r="81" ht="NA" customHeight="1">
@@ -2998,19 +2977,19 @@
         <v>73</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>108</v>
+        <v>159</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>108</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>108</v>
+        <v>279</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="F81" s="8" t="n">
-        <v>0.071</v>
+        <v>290</v>
+      </c>
+      <c r="F81" s="8" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="82" ht="NA" customHeight="1">
@@ -3018,19 +2997,19 @@
         <v>74</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="83" ht="NA" customHeight="1">
@@ -3038,59 +3017,59 @@
         <v>75</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>160</v>
+        <v>107</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>237</v>
+        <v>107</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>274</v>
+        <v>107</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="F83" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
+      </c>
+      <c r="F83" s="8" t="n">
+        <v>0.6</v>
       </c>
     </row>
     <row r="84" ht="NA" customHeight="1">
       <c r="A84" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>108</v>
+        <v>161</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>108</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>108</v>
+        <v>275</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="F84" s="8" t="n">
-        <v>0.6</v>
+        <v>295</v>
+      </c>
+      <c r="F84" s="8" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="85" ht="NA" customHeight="1">
       <c r="A85" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="86" ht="NA" customHeight="1">
@@ -3098,59 +3077,59 @@
         <v>77</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>162</v>
+        <v>107</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>239</v>
+        <v>107</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>284</v>
+        <v>107</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="F86" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
+      </c>
+      <c r="F86" s="8" t="n">
+        <v>0.005</v>
       </c>
     </row>
     <row r="87" ht="NA" customHeight="1">
       <c r="A87" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>108</v>
+        <v>238</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>108</v>
+        <v>277</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="F87" s="8" t="n">
-        <v>0.006</v>
+        <v>297</v>
+      </c>
+      <c r="F87" s="8" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="88" ht="NA" customHeight="1">
       <c r="A88" s="3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="89" ht="NA" customHeight="1">
@@ -3158,59 +3137,59 @@
         <v>79</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>164</v>
+        <v>107</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>241</v>
+        <v>107</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>277</v>
+        <v>107</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="F89" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
+      </c>
+      <c r="F89" s="8" t="n">
+        <v>0.002</v>
       </c>
     </row>
     <row r="90" ht="NA" customHeight="1">
       <c r="A90" s="3" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>108</v>
+        <v>165</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>108</v>
+        <v>239</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>108</v>
+        <v>279</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="F90" s="8" t="n">
-        <v>0.004</v>
+        <v>295</v>
+      </c>
+      <c r="F90" s="8" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="91" ht="NA" customHeight="1">
       <c r="A91" s="3" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="92" ht="NA" customHeight="1">
@@ -3218,59 +3197,59 @@
         <v>81</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>166</v>
+        <v>107</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>243</v>
+        <v>107</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>274</v>
+        <v>107</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="F92" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
+      </c>
+      <c r="F92" s="8" t="n">
+        <v>0.018</v>
       </c>
     </row>
     <row r="93" ht="NA" customHeight="1">
       <c r="A93" s="3" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>108</v>
+        <v>167</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>108</v>
+        <v>238</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>108</v>
+        <v>280</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="F93" s="8" t="n">
-        <v>0.014</v>
+        <v>290</v>
+      </c>
+      <c r="F93" s="8" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="94" ht="NA" customHeight="1">
       <c r="A94" s="3" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="E94" s="8" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="95" ht="NA" customHeight="1">
@@ -3278,59 +3257,59 @@
         <v>83</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>147</v>
+        <v>107</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>241</v>
+        <v>107</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>271</v>
+        <v>107</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="F95" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
+      </c>
+      <c r="F95" s="8" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="96" ht="NA" customHeight="1">
       <c r="A96" s="3" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>108</v>
+        <v>168</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>108</v>
+        <v>241</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>108</v>
+        <v>276</v>
       </c>
       <c r="E96" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="F96" s="8" t="n">
-        <v>0.3</v>
+        <v>294</v>
+      </c>
+      <c r="F96" s="8" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="97" ht="NA" customHeight="1">
       <c r="A97" s="3" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>244</v>
+        <v>212</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="98" ht="NA" customHeight="1">
@@ -3338,59 +3317,59 @@
         <v>85</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>169</v>
+        <v>107</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>214</v>
+        <v>107</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>278</v>
+        <v>107</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="F98" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
+      </c>
+      <c r="F98" s="8" t="n">
+        <v>0.021</v>
       </c>
     </row>
     <row r="99" ht="NA" customHeight="1">
       <c r="A99" s="3" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>108</v>
+        <v>242</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>108</v>
+        <v>281</v>
       </c>
       <c r="E99" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="F99" s="8" t="n">
-        <v>0.014</v>
+        <v>289</v>
+      </c>
+      <c r="F99" s="8" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="100" ht="NA" customHeight="1">
       <c r="A100" s="3" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="E100" s="8" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="101" ht="NA" customHeight="1">
@@ -3398,59 +3377,59 @@
         <v>87</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>246</v>
+        <v>107</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>289</v>
+        <v>107</v>
       </c>
       <c r="E101" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="F101" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
+      </c>
+      <c r="F101" s="8" t="n">
+        <v>0.7</v>
       </c>
     </row>
     <row r="102" ht="NA" customHeight="1">
       <c r="A102" s="3" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>108</v>
+        <v>170</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>108</v>
+        <v>244</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>108</v>
+        <v>278</v>
       </c>
       <c r="E102" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="F102" s="8" t="n">
-        <v>0.7</v>
+        <v>296</v>
+      </c>
+      <c r="F102" s="8" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="103" ht="NA" customHeight="1">
       <c r="A103" s="3" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>170</v>
+        <v>127</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>247</v>
+        <v>205</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="E103" s="8" t="s">
-        <v>303</v>
+        <v>125</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="104" ht="NA" customHeight="1">
@@ -3458,59 +3437,59 @@
         <v>89</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>207</v>
+        <v>107</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>279</v>
+        <v>107</v>
       </c>
       <c r="E104" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="F104" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
+      </c>
+      <c r="F104" s="8" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="105" ht="NA" customHeight="1">
       <c r="A105" s="3" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>108</v>
+        <v>171</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>108</v>
+        <v>245</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>108</v>
+        <v>261</v>
       </c>
       <c r="E105" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="F105" s="8" t="n">
-        <v>0.14</v>
+        <v>289</v>
+      </c>
+      <c r="F105" s="8" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="106" ht="NA" customHeight="1">
       <c r="A106" s="3" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>248</v>
+        <v>211</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E106" s="8" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="F106" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="107" ht="NA" customHeight="1">
@@ -3518,59 +3497,59 @@
         <v>91</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>172</v>
+        <v>107</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>213</v>
+        <v>107</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>264</v>
+        <v>107</v>
       </c>
       <c r="E107" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="F107" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
+      </c>
+      <c r="F107" s="8" t="n">
+        <v>0.005</v>
       </c>
     </row>
     <row r="108" ht="NA" customHeight="1">
       <c r="A108" s="3" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>108</v>
+        <v>217</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>108</v>
+        <v>278</v>
       </c>
       <c r="E108" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="F108" s="8" t="n">
-        <v>0.002</v>
+        <v>290</v>
+      </c>
+      <c r="F108" s="8" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="109" ht="NA" customHeight="1">
       <c r="A109" s="3" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C109" s="8" t="s">
         <v>218</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="E109" s="8" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="F109" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="110" ht="NA" customHeight="1">
@@ -3578,985 +3557,965 @@
         <v>93</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>219</v>
+        <v>107</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>279</v>
+        <v>107</v>
       </c>
       <c r="E110" s="8" t="s">
-        <v>296</v>
+        <v>107</v>
       </c>
       <c r="F110" s="8" t="s">
-        <v>108</v>
+        <v>301</v>
       </c>
     </row>
     <row r="111" ht="NA" customHeight="1">
-      <c r="A111" s="3" t="s">
-        <v>94</v>
+      <c r="A111" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>108</v>
+        <v>173</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>108</v>
+        <v>246</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>108</v>
+        <v>271</v>
       </c>
       <c r="E111" s="8" t="s">
-        <v>108</v>
+        <v>289</v>
       </c>
       <c r="F111" s="8" t="s">
-        <v>308</v>
+        <v>107</v>
       </c>
     </row>
     <row r="112" ht="NA" customHeight="1">
       <c r="A112" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>173</v>
+        <v>108</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="E112" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F112" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="113" ht="NA" customHeight="1">
       <c r="A113" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>290</v>
+        <v>266</v>
       </c>
       <c r="E113" s="8" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="F113" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="114" ht="NA" customHeight="1">
       <c r="A114" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>251</v>
+        <v>125</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E114" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F114" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="115" ht="NA" customHeight="1">
-      <c r="A115" s="3" t="n">
-        <v>3</v>
+      <c r="A115" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>152</v>
+        <v>107</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>270</v>
+        <v>107</v>
       </c>
       <c r="E115" s="8" t="s">
-        <v>302</v>
+        <v>107</v>
       </c>
       <c r="F115" s="8" t="s">
-        <v>108</v>
+        <v>301</v>
       </c>
     </row>
     <row r="116" ht="NA" customHeight="1">
-      <c r="A116" s="3" t="s">
-        <v>95</v>
+      <c r="A116" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>108</v>
+        <v>174</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>108</v>
+        <v>213</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>108</v>
+        <v>281</v>
       </c>
       <c r="E116" s="8" t="s">
-        <v>108</v>
+        <v>297</v>
       </c>
       <c r="F116" s="8" t="s">
-        <v>308</v>
+        <v>107</v>
       </c>
     </row>
     <row r="117" ht="NA" customHeight="1">
       <c r="A117" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="E117" s="8" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="F117" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="118" ht="NA" customHeight="1">
       <c r="A118" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>253</v>
+        <v>156</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="E118" s="8" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="F118" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="119" ht="NA" customHeight="1">
       <c r="A119" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>175</v>
+        <v>125</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>270</v>
+        <v>125</v>
       </c>
       <c r="E119" s="8" t="s">
-        <v>296</v>
+        <v>125</v>
       </c>
       <c r="F119" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="120" ht="NA" customHeight="1">
-      <c r="A120" s="3" t="n">
-        <v>3</v>
+      <c r="A120" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="E120" s="8" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="F120" s="8" t="s">
-        <v>108</v>
+        <v>301</v>
       </c>
     </row>
     <row r="121" ht="NA" customHeight="1">
-      <c r="A121" s="3" t="s">
-        <v>96</v>
+      <c r="A121" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>108</v>
+        <v>176</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>108</v>
+        <v>250</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>108</v>
+        <v>271</v>
       </c>
       <c r="E121" s="8" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="F121" s="8" t="s">
-        <v>308</v>
+        <v>107</v>
       </c>
     </row>
     <row r="122" ht="NA" customHeight="1">
       <c r="A122" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="E122" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F122" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="123" ht="NA" customHeight="1">
       <c r="A123" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>177</v>
+        <v>127</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>255</v>
+        <v>215</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="E123" s="8" t="s">
-        <v>126</v>
+        <v>289</v>
       </c>
       <c r="F123" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="124" ht="NA" customHeight="1">
       <c r="A124" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E124" s="8" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="F124" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="125" ht="NA" customHeight="1">
-      <c r="A125" s="3" t="n">
-        <v>3</v>
+      <c r="A125" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="B125" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C125" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D125" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E125" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F125" s="8" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="126" ht="NA" customHeight="1">
+      <c r="A126" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B126" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="C125" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="D125" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="E125" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="F125" s="8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="126" ht="NA" customHeight="1">
-      <c r="A126" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B126" s="8" t="s">
-        <v>108</v>
-      </c>
       <c r="C126" s="8" t="s">
-        <v>108</v>
+        <v>252</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>108</v>
+        <v>260</v>
       </c>
       <c r="E126" s="8" t="s">
-        <v>108</v>
+        <v>295</v>
       </c>
       <c r="F126" s="8" t="s">
-        <v>308</v>
+        <v>107</v>
       </c>
     </row>
     <row r="127" ht="NA" customHeight="1">
       <c r="A127" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B127" s="8" t="s">
         <v>179</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>256</v>
+        <v>202</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="E127" s="8" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="F127" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="128" ht="NA" customHeight="1">
       <c r="A128" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>180</v>
+        <v>137</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>204</v>
+        <v>156</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>291</v>
+        <v>260</v>
       </c>
       <c r="E128" s="8" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="F128" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="129" ht="NA" customHeight="1">
       <c r="A129" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>156</v>
+        <v>200</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E129" s="8" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="F129" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="130" ht="NA" customHeight="1">
-      <c r="A130" s="3" t="n">
-        <v>3</v>
+      <c r="A130" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>175</v>
+        <v>107</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>202</v>
+        <v>107</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>270</v>
+        <v>107</v>
       </c>
       <c r="E130" s="8" t="s">
-        <v>302</v>
+        <v>107</v>
       </c>
       <c r="F130" s="8" t="s">
-        <v>108</v>
+        <v>301</v>
       </c>
     </row>
     <row r="131" ht="NA" customHeight="1">
-      <c r="A131" s="3" t="s">
-        <v>98</v>
+      <c r="A131" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>108</v>
+        <v>180</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>108</v>
+        <v>253</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>108</v>
+        <v>274</v>
       </c>
       <c r="E131" s="8" t="s">
-        <v>108</v>
+        <v>289</v>
       </c>
       <c r="F131" s="8" t="s">
-        <v>308</v>
+        <v>107</v>
       </c>
     </row>
     <row r="132" ht="NA" customHeight="1">
       <c r="A132" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B132" s="8" t="s">
         <v>181</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="E132" s="8" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="F132" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="133" ht="NA" customHeight="1">
       <c r="A133" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B133" s="8" t="s">
         <v>182</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>258</v>
+        <v>200</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>291</v>
+        <v>267</v>
       </c>
       <c r="E133" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F133" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="134" ht="NA" customHeight="1">
       <c r="A134" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B134" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C134" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D134" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="E134" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="F134" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="135" ht="NA" customHeight="1">
+      <c r="A135" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D135" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E135" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F135" s="8" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="136" ht="NA" customHeight="1">
+      <c r="A136" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B136" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="C134" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="D134" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="E134" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="F134" s="8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="135" ht="NA" customHeight="1">
-      <c r="A135" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B135" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="C135" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="D135" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="E135" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="F135" s="8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="136" ht="NA" customHeight="1">
-      <c r="A136" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B136" s="8" t="s">
-        <v>108</v>
-      </c>
       <c r="C136" s="8" t="s">
-        <v>108</v>
+        <v>192</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>108</v>
+        <v>283</v>
       </c>
       <c r="E136" s="8" t="s">
-        <v>108</v>
+        <v>297</v>
       </c>
       <c r="F136" s="8" t="s">
-        <v>308</v>
+        <v>107</v>
       </c>
     </row>
     <row r="137" ht="NA" customHeight="1">
       <c r="A137" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>184</v>
+        <v>141</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c r="E137" s="8" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="F137" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="138" ht="NA" customHeight="1">
       <c r="A138" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>195</v>
+        <v>125</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="E138" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F138" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="139" ht="NA" customHeight="1">
       <c r="A139" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>273</v>
+        <v>125</v>
       </c>
       <c r="E139" s="8" t="s">
-        <v>302</v>
+        <v>125</v>
       </c>
       <c r="F139" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="140" ht="NA" customHeight="1">
-      <c r="A140" s="3" t="n">
-        <v>3</v>
+      <c r="A140" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="E140" s="8" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="F140" s="8" t="s">
-        <v>108</v>
+        <v>301</v>
       </c>
     </row>
     <row r="141" ht="NA" customHeight="1">
-      <c r="A141" s="3" t="s">
-        <v>100</v>
+      <c r="A141" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>108</v>
+        <v>167</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>108</v>
+        <v>192</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>108</v>
+        <v>276</v>
       </c>
       <c r="E141" s="8" t="s">
-        <v>108</v>
+        <v>289</v>
       </c>
       <c r="F141" s="8" t="s">
-        <v>308</v>
+        <v>107</v>
       </c>
     </row>
     <row r="142" ht="NA" customHeight="1">
       <c r="A142" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>167</v>
+        <v>136</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="E142" s="8" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="F142" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="143" ht="NA" customHeight="1">
       <c r="A143" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>195</v>
+        <v>125</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>278</v>
+        <v>125</v>
       </c>
       <c r="E143" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F143" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="144" ht="NA" customHeight="1">
       <c r="A144" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B144" s="8" t="s">
         <v>156</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E144" s="8" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="F144" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="145" ht="NA" customHeight="1">
-      <c r="A145" s="3" t="n">
-        <v>3</v>
+      <c r="A145" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>156</v>
+        <v>107</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="D145" s="8" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="E145" s="8" t="s">
-        <v>302</v>
+        <v>107</v>
       </c>
       <c r="F145" s="8" t="s">
-        <v>108</v>
+        <v>301</v>
       </c>
     </row>
     <row r="146" ht="NA" customHeight="1">
-      <c r="A146" s="3" t="s">
-        <v>101</v>
+      <c r="A146" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>108</v>
+        <v>183</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>108</v>
+        <v>255</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>108</v>
+        <v>261</v>
       </c>
       <c r="E146" s="8" t="s">
-        <v>108</v>
+        <v>289</v>
       </c>
       <c r="F146" s="8" t="s">
-        <v>308</v>
+        <v>107</v>
       </c>
     </row>
     <row r="147" ht="NA" customHeight="1">
       <c r="A147" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>184</v>
+        <v>141</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>259</v>
+        <v>223</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E147" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F147" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="148" ht="NA" customHeight="1">
       <c r="A148" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>225</v>
+        <v>125</v>
       </c>
       <c r="D148" s="8" t="s">
-        <v>264</v>
+        <v>125</v>
       </c>
       <c r="E148" s="8" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="F148" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="149" ht="NA" customHeight="1">
       <c r="A149" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D149" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E149" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F149" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="150" ht="NA" customHeight="1">
-      <c r="A150" s="3" t="n">
-        <v>3</v>
+      <c r="A150" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>156</v>
+        <v>107</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="E150" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="F150" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
+      </c>
+      <c r="F150" s="8" t="n">
+        <v>0.005</v>
       </c>
     </row>
     <row r="151" ht="NA" customHeight="1">
-      <c r="A151" s="3" t="s">
-        <v>102</v>
+      <c r="A151" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>108</v>
+        <v>184</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>108</v>
+        <v>256</v>
       </c>
       <c r="D151" s="8" t="s">
-        <v>108</v>
+        <v>285</v>
       </c>
       <c r="E151" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="F151" s="8" t="n">
-        <v>0.004</v>
+        <v>294</v>
+      </c>
+      <c r="F151" s="8" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="152" ht="NA" customHeight="1">
       <c r="A152" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>260</v>
+        <v>156</v>
       </c>
       <c r="D152" s="8" t="s">
-        <v>292</v>
+        <v>269</v>
       </c>
       <c r="E152" s="8" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="F152" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="153" ht="NA" customHeight="1">
       <c r="A153" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>175</v>
+        <v>125</v>
       </c>
       <c r="C153" s="8" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="D153" s="8" t="s">
-        <v>273</v>
+        <v>125</v>
       </c>
       <c r="E153" s="8" t="s">
-        <v>302</v>
+        <v>125</v>
       </c>
       <c r="F153" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="154" ht="NA" customHeight="1">
       <c r="A154" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D154" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E154" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F154" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="155" ht="NA" customHeight="1">
-      <c r="A155" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B155" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="C155" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="D155" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="E155" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="F155" s="8" t="s">
-        <v>108</v>
+      <c r="A155" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B155" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="C155" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="D155" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="E155" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="F155" s="9" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="156" ht="NA" customHeight="1">
-      <c r="A156" s="4" t="s">
+      <c r="A156" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B156" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="C156" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="D156" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="E156" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="F156" s="9" t="s">
-        <v>308</v>
+      <c r="B156" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D156" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E156" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F156" s="5" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="157" ht="NA" customHeight="1">
-      <c r="A157" s="5" t="s">
+      <c r="A157" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B157" s="5" t="s">
+      <c r="B157" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C157" s="5" t="s">
+      <c r="C157" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D157" s="5" t="s">
+      <c r="D157" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E157" s="5" t="s">
+      <c r="E157" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="F157" s="5" t="s">
+      <c r="F157" s="3" t="s">
         <v>104</v>
-      </c>
-    </row>
-    <row r="158" ht="NA" customHeight="1">
-      <c r="A158" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B158" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C158" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D158" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E158" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F158" s="3" t="s">
-        <v>105</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="A156:F156"/>
     <mergeCell ref="A157:F157"/>
-    <mergeCell ref="A158:F158"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/output/table_2.xlsx
+++ b/output/table_2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="303">
   <si>
     <t xml:space="preserve">Characteristic
 </t>
@@ -48,6 +48,9 @@
     <t xml:space="preserve">     Chinese</t>
   </si>
   <si>
+    <t xml:space="preserve">     others</t>
+  </si>
+  <si>
     <t xml:space="preserve">Marital status</t>
   </si>
   <si>
@@ -69,9 +72,6 @@
     <t xml:space="preserve">     Bangkok</t>
   </si>
   <si>
-    <t xml:space="preserve">     others</t>
-  </si>
-  <si>
     <t xml:space="preserve">Education</t>
   </si>
   <si>
@@ -150,7 +150,10 @@
     <t xml:space="preserve">     Bedbound</t>
   </si>
   <si>
-    <t xml:space="preserve">PatientHearing</t>
+    <t xml:space="preserve">Hearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Hearing aid</t>
   </si>
   <si>
     <t xml:space="preserve">     Hearing impairment</t>
@@ -356,12 +359,15 @@
     <t xml:space="preserve">23.5 (21.3, 25.7)</t>
   </si>
   <si>
-    <t xml:space="preserve">263 (97%)</t>
+    <t xml:space="preserve">262 (96%)</t>
   </si>
   <si>
     <t xml:space="preserve">9 (3.3%)</t>
   </si>
   <si>
+    <t xml:space="preserve">1 (0.4%)</t>
+  </si>
+  <si>
     <t xml:space="preserve">50 (18%)</t>
   </si>
   <si>
@@ -437,103 +443,100 @@
     <t xml:space="preserve">12 (4.4%)</t>
   </si>
   <si>
+    <t xml:space="preserve">255 (94%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (0.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 (5.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100 (37%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">234 (86%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (2.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32 (12%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">247 (91%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22 (8.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 (2.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115 (42%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">155 (57%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">230 (85%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35 (13%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (1.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111 (41%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">131 (48%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">238 (88%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34 (13%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53 (19%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">219 (81%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">251 (92%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21 (7.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">216 (79%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56 (21%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">250 (92%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">211 (78%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61 (22%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">249 (92%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">197 (72%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75 (28%)</t>
+  </si>
+  <si>
     <t xml:space="preserve">257 (94%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15 (5.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100 (37%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">234 (86%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (2.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32 (12%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">247 (91%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22 (8.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">255 (94%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 (2.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115 (42%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">155 (57%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (0.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">230 (85%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35 (13%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (1.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (0.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111 (41%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">131 (48%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">238 (88%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34 (13%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53 (19%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">219 (81%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">251 (92%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21 (7.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">216 (79%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56 (21%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">250 (92%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">211 (78%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61 (22%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">249 (92%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">197 (72%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75 (28%)</t>
   </si>
   <si>
     <t xml:space="preserve">186 (68%)</t>
@@ -675,7 +678,7 @@
     <t xml:space="preserve">9 (3.9%)</t>
   </si>
   <si>
-    <t xml:space="preserve">223 (96%)</t>
+    <t xml:space="preserve">221 (95%)</t>
   </si>
   <si>
     <t xml:space="preserve">144 (62%)</t>
@@ -902,16 +905,16 @@
     <t xml:space="preserve">20.9 (19.9, 22.0)</t>
   </si>
   <si>
+    <t xml:space="preserve">1 (17%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (100%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (50%)</t>
+  </si>
+  <si>
     <t xml:space="preserve">5 (83%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (17%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (100%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (50%)</t>
   </si>
   <si>
     <t xml:space="preserve">11 (9, 13)</t>
@@ -1377,19 +1380,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2" ht="NA" customHeight="1">
@@ -1397,16 +1400,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F2" s="7" t="n">
         <v>0.02</v>
@@ -1417,19 +1420,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" ht="NA" customHeight="1">
@@ -1437,19 +1440,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" ht="NA" customHeight="1">
@@ -1457,19 +1460,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" ht="NA" customHeight="1">
@@ -1477,16 +1480,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F6" s="8" t="n">
         <v>0.3</v>
@@ -1497,16 +1500,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F7" s="8" t="n">
         <v>0.3</v>
@@ -1517,16 +1520,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F8" s="8" t="n">
         <v>0.017</v>
@@ -1537,19 +1540,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F9" s="8" t="n">
-        <v>0.2</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="10" ht="NA" customHeight="1">
@@ -1557,19 +1560,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" ht="NA" customHeight="1">
@@ -1577,19 +1580,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>295</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" ht="NA" customHeight="1">
@@ -1597,19 +1600,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="F12" s="8" t="n">
-        <v>0.5</v>
+        <v>295</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="13" ht="NA" customHeight="1">
@@ -1617,19 +1620,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>194</v>
+        <v>108</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>267</v>
+        <v>108</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="F13" s="8" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="14" ht="NA" customHeight="1">
@@ -1637,7 +1640,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>195</v>
@@ -1646,10 +1649,10 @@
         <v>268</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>290</v>
+        <v>127</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" ht="NA" customHeight="1">
@@ -1657,7 +1660,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>196</v>
@@ -1666,10 +1669,10 @@
         <v>269</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>125</v>
+        <v>291</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" ht="NA" customHeight="1">
@@ -1677,7 +1680,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>197</v>
@@ -1686,10 +1689,10 @@
         <v>270</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>289</v>
+        <v>127</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" ht="NA" customHeight="1">
@@ -1697,19 +1700,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>107</v>
+        <v>198</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>107</v>
+        <v>271</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="F17" s="8" t="n">
-        <v>0.2</v>
+        <v>290</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="18" ht="NA" customHeight="1">
@@ -1717,19 +1720,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>198</v>
+        <v>108</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>261</v>
+        <v>108</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="F18" s="8" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="19" ht="NA" customHeight="1">
@@ -1737,187 +1740,187 @@
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>199</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>125</v>
+        <v>296</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" ht="NA" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>107</v>
+        <v>200</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>107</v>
+        <v>261</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="F20" s="8" t="n">
-        <v>0.11</v>
+        <v>127</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="21" ht="NA" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>200</v>
+        <v>108</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>266</v>
+        <v>108</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="F21" s="8" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="22" ht="NA" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>201</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>295</v>
+        <v>127</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" ht="NA" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>202</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>295</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" ht="NA" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>203</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" ht="NA" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>125</v>
+        <v>204</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>125</v>
+        <v>273</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>125</v>
+        <v>291</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" ht="NA" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="F26" s="8" t="n">
-        <v>0.3</v>
+        <v>127</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="27" ht="NA" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>204</v>
+        <v>108</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>272</v>
+        <v>108</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="F27" s="8" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="28" ht="NA" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>205</v>
@@ -1929,95 +1932,95 @@
         <v>295</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" ht="NA" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>206</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>125</v>
+        <v>295</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" ht="NA" customHeight="1">
       <c r="A30" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>207</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>290</v>
+        <v>127</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" ht="NA" customHeight="1">
       <c r="A31" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>107</v>
+        <v>208</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>107</v>
+        <v>275</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="F31" s="8" t="n">
-        <v>0.07</v>
+        <v>291</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="32" ht="NA" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>208</v>
+        <v>108</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>274</v>
+        <v>108</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="F32" s="8" t="n">
+        <v>0.081</v>
       </c>
     </row>
     <row r="33" ht="NA" customHeight="1">
       <c r="A33" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>209</v>
@@ -2026,350 +2029,350 @@
         <v>275</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" ht="NA" customHeight="1">
       <c r="A34" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>210</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>125</v>
+        <v>297</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" ht="NA" customHeight="1">
       <c r="A35" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>211</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" ht="NA" customHeight="1">
       <c r="A36" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>212</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>289</v>
+        <v>127</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37" ht="NA" customHeight="1">
       <c r="A37" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>107</v>
+        <v>213</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>107</v>
+        <v>261</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="F37" s="8" t="n">
-        <v>0.2</v>
+        <v>290</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="38" ht="NA" customHeight="1">
       <c r="A38" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>213</v>
+        <v>108</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>276</v>
+        <v>108</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="F38" s="8" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="39" ht="NA" customHeight="1">
       <c r="A39" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>214</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>125</v>
+        <v>298</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40" ht="NA" customHeight="1">
       <c r="A40" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>215</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>295</v>
+        <v>127</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="41" ht="NA" customHeight="1">
       <c r="A41" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>216</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>125</v>
+        <v>295</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42" ht="NA" customHeight="1">
       <c r="A42" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>107</v>
+        <v>217</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>107</v>
+        <v>274</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="F42" s="8" t="n">
-        <v>0.4</v>
+        <v>127</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="43" ht="NA" customHeight="1">
       <c r="A43" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>217</v>
+        <v>108</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>277</v>
+        <v>108</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="F43" s="8" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="44" ht="NA" customHeight="1">
       <c r="A44" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>218</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>125</v>
+        <v>296</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="45" ht="NA" customHeight="1">
       <c r="A45" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>125</v>
+        <v>219</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>125</v>
+        <v>274</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="46" ht="NA" customHeight="1">
       <c r="A46" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="F46" s="8" t="n">
-        <v>0.078</v>
+        <v>127</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="47" ht="NA" customHeight="1">
       <c r="A47" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>219</v>
+        <v>108</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>278</v>
+        <v>108</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="F47" s="8" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="48" ht="NA" customHeight="1">
       <c r="A48" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="49" ht="NA" customHeight="1">
       <c r="A49" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>107</v>
+        <v>201</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="F49" s="8" t="n">
-        <v>0.5</v>
+        <v>127</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="50" ht="NA" customHeight="1">
       <c r="A50" s="3" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="51" ht="NA" customHeight="1">
@@ -2377,319 +2380,319 @@
         <v>48</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>221</v>
+        <v>108</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>260</v>
+        <v>108</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="F51" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="F51" s="8" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="52" ht="NA" customHeight="1">
       <c r="A52" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>125</v>
+        <v>221</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>125</v>
+        <v>262</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>125</v>
+        <v>291</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="53" ht="NA" customHeight="1">
       <c r="A53" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>107</v>
+        <v>222</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>107</v>
+        <v>261</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="F53" s="8" t="n">
-        <v>0.5</v>
+        <v>290</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="54" ht="NA" customHeight="1">
       <c r="A54" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>222</v>
+        <v>127</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>279</v>
+        <v>127</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>296</v>
+        <v>127</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="55" ht="NA" customHeight="1">
       <c r="A55" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>144</v>
+        <v>108</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>266</v>
+        <v>108</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="F55" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="F55" s="8" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="56" ht="NA" customHeight="1">
       <c r="A56" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>125</v>
+        <v>296</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="57" ht="NA" customHeight="1">
       <c r="A57" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>107</v>
+        <v>147</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>107</v>
+        <v>224</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>107</v>
+        <v>267</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="F57" s="8" t="n">
-        <v>0.5</v>
+        <v>127</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="58" ht="NA" customHeight="1">
       <c r="A58" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C58" s="8" t="s">
         <v>225</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>296</v>
+        <v>127</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="59" ht="NA" customHeight="1">
       <c r="A59" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>205</v>
+        <v>108</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>273</v>
+        <v>108</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="F59" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="F59" s="8" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="60" ht="NA" customHeight="1">
       <c r="A60" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>125</v>
+        <v>296</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="61" ht="NA" customHeight="1">
       <c r="A61" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>107</v>
+        <v>150</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>107</v>
+        <v>206</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>107</v>
+        <v>274</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="F61" s="8" t="n">
-        <v>0.042</v>
+        <v>127</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="62" ht="NA" customHeight="1">
       <c r="A62" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>226</v>
+        <v>201</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>294</v>
+        <v>127</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="63" ht="NA" customHeight="1">
       <c r="A63" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>193</v>
+        <v>108</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>269</v>
+        <v>108</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="F63" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="F63" s="8" t="n">
+        <v>0.036</v>
       </c>
     </row>
     <row r="64" ht="NA" customHeight="1">
       <c r="A64" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>227</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>125</v>
+        <v>298</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="65" ht="NA" customHeight="1">
       <c r="A65" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>107</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>107</v>
+        <v>270</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="F65" s="8" t="n">
-        <v>0.004</v>
+        <v>295</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="66" ht="NA" customHeight="1">
       <c r="A66" s="3" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C66" s="8" t="s">
         <v>228</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>295</v>
+        <v>127</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="67" ht="NA" customHeight="1">
@@ -2697,359 +2700,359 @@
         <v>63</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>151</v>
+        <v>108</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>229</v>
+        <v>108</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>279</v>
+        <v>108</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="F67" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="F67" s="8" t="n">
+        <v>0.002</v>
       </c>
     </row>
     <row r="68" ht="NA" customHeight="1">
       <c r="A68" s="3" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="B68" s="8" t="s">
         <v>152</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>156</v>
+        <v>229</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>125</v>
+        <v>271</v>
       </c>
       <c r="E68" s="8" t="s">
         <v>295</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="69" ht="NA" customHeight="1">
       <c r="A69" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="70" ht="NA" customHeight="1">
+      <c r="A70" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B69" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="D69" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="E69" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="F69" s="8" t="n">
-        <v>0.004</v>
-      </c>
-    </row>
-    <row r="70" ht="NA" customHeight="1">
-      <c r="A70" s="3" t="n">
-        <v>0</v>
-      </c>
       <c r="B70" s="8" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>230</v>
+        <v>116</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>276</v>
+        <v>127</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="71" ht="NA" customHeight="1">
-      <c r="A71" s="3" t="n">
-        <v>1</v>
+      <c r="A71" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>154</v>
+        <v>108</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>231</v>
+        <v>108</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>260</v>
+        <v>108</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="F71" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="F71" s="8" t="n">
+        <v>0.003</v>
       </c>
     </row>
     <row r="72" ht="NA" customHeight="1">
       <c r="A72" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>125</v>
+        <v>277</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>125</v>
+        <v>291</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="73" ht="NA" customHeight="1">
       <c r="A73" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="74" ht="NA" customHeight="1">
+      <c r="A74" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F74" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="75" ht="NA" customHeight="1">
+      <c r="A75" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B73" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="D73" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="E73" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="F73" s="8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="74" ht="NA" customHeight="1">
-      <c r="A74" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B74" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="D74" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="E74" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="F74" s="8" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="75" ht="NA" customHeight="1">
-      <c r="A75" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="B75" s="8" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="76" ht="NA" customHeight="1">
       <c r="A76" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>144</v>
+        <v>108</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>200</v>
+        <v>108</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>266</v>
+        <v>108</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>297</v>
+        <v>108</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>107</v>
+        <v>302</v>
       </c>
     </row>
     <row r="77" ht="NA" customHeight="1">
       <c r="A77" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>157</v>
+        <v>116</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>232</v>
+        <v>127</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>295</v>
+        <v>127</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="78" ht="NA" customHeight="1">
       <c r="A78" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="79" ht="NA" customHeight="1">
       <c r="A79" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>125</v>
+        <v>277</v>
       </c>
       <c r="E79" s="8" t="s">
         <v>295</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="80" ht="NA" customHeight="1">
       <c r="A80" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>107</v>
+        <v>158</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>107</v>
+        <v>234</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>107</v>
+        <v>261</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="F80" s="8" t="n">
-        <v>0.062</v>
+        <v>295</v>
+      </c>
+      <c r="F80" s="8" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="81" ht="NA" customHeight="1">
       <c r="A81" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>234</v>
+        <v>207</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>279</v>
+        <v>127</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="82" ht="NA" customHeight="1">
       <c r="A82" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>160</v>
+        <v>108</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>235</v>
+        <v>108</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>270</v>
+        <v>108</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="F82" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="F82" s="8" t="n">
+        <v>0.053</v>
       </c>
     </row>
     <row r="83" ht="NA" customHeight="1">
       <c r="A83" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>107</v>
+        <v>159</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>107</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>107</v>
+        <v>280</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="F83" s="8" t="n">
-        <v>0.6</v>
+        <v>291</v>
+      </c>
+      <c r="F83" s="8" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="84" ht="NA" customHeight="1">
       <c r="A84" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C84" s="8" t="s">
         <v>236</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="85" ht="NA" customHeight="1">
@@ -3057,59 +3060,59 @@
         <v>76</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>237</v>
+        <v>108</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>278</v>
+        <v>108</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="F85" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="F85" s="8" t="n">
+        <v>0.6</v>
       </c>
     </row>
     <row r="86" ht="NA" customHeight="1">
       <c r="A86" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>107</v>
+        <v>161</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>107</v>
+        <v>237</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>107</v>
+        <v>276</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="F86" s="8" t="n">
-        <v>0.005</v>
+        <v>295</v>
+      </c>
+      <c r="F86" s="8" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="87" ht="NA" customHeight="1">
       <c r="A87" s="3" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C87" s="8" t="s">
         <v>238</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="88" ht="NA" customHeight="1">
@@ -3117,59 +3120,59 @@
         <v>78</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>215</v>
+        <v>108</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>273</v>
+        <v>108</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="F88" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="F88" s="8" t="n">
+        <v>0.007</v>
       </c>
     </row>
     <row r="89" ht="NA" customHeight="1">
       <c r="A89" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>107</v>
+        <v>163</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>107</v>
+        <v>239</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>107</v>
+        <v>278</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="F89" s="8" t="n">
-        <v>0.002</v>
+        <v>297</v>
+      </c>
+      <c r="F89" s="8" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="90" ht="NA" customHeight="1">
       <c r="A90" s="3" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>239</v>
+        <v>216</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="91" ht="NA" customHeight="1">
@@ -3177,59 +3180,59 @@
         <v>80</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>166</v>
+        <v>108</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>240</v>
+        <v>108</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>270</v>
+        <v>108</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="F91" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="F91" s="8" t="n">
+        <v>0.002</v>
       </c>
     </row>
     <row r="92" ht="NA" customHeight="1">
       <c r="A92" s="3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>107</v>
+        <v>165</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>107</v>
+        <v>240</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>107</v>
+        <v>280</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="F92" s="8" t="n">
-        <v>0.018</v>
+        <v>295</v>
+      </c>
+      <c r="F92" s="8" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="93" ht="NA" customHeight="1">
       <c r="A93" s="3" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="94" ht="NA" customHeight="1">
@@ -3237,59 +3240,59 @@
         <v>82</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>215</v>
+        <v>108</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>267</v>
+        <v>108</v>
       </c>
       <c r="E94" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="F94" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="F94" s="8" t="n">
+        <v>0.018</v>
       </c>
     </row>
     <row r="95" ht="NA" customHeight="1">
       <c r="A95" s="3" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>107</v>
+        <v>167</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>107</v>
+        <v>239</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>107</v>
+        <v>281</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="F95" s="8" t="n">
-        <v>0.3</v>
+        <v>291</v>
+      </c>
+      <c r="F95" s="8" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="96" ht="NA" customHeight="1">
       <c r="A96" s="3" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="E96" s="8" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="97" ht="NA" customHeight="1">
@@ -3297,59 +3300,59 @@
         <v>84</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>169</v>
+        <v>108</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>212</v>
+        <v>108</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>274</v>
+        <v>108</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="F97" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="F97" s="8" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="98" ht="NA" customHeight="1">
       <c r="A98" s="3" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>107</v>
+        <v>168</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>107</v>
+        <v>242</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>107</v>
+        <v>277</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="F98" s="8" t="n">
-        <v>0.021</v>
+        <v>298</v>
+      </c>
+      <c r="F98" s="8" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="99" ht="NA" customHeight="1">
       <c r="A99" s="3" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>116</v>
+        <v>169</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>242</v>
+        <v>213</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="E99" s="8" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="100" ht="NA" customHeight="1">
@@ -3357,59 +3360,59 @@
         <v>86</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>243</v>
+        <v>108</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>282</v>
+        <v>108</v>
       </c>
       <c r="E100" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="F100" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="F100" s="8" t="n">
+        <v>0.018</v>
       </c>
     </row>
     <row r="101" ht="NA" customHeight="1">
       <c r="A101" s="3" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>107</v>
+        <v>243</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>107</v>
+        <v>282</v>
       </c>
       <c r="E101" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="F101" s="8" t="n">
-        <v>0.7</v>
+        <v>290</v>
+      </c>
+      <c r="F101" s="8" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="102" ht="NA" customHeight="1">
       <c r="A102" s="3" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="C102" s="8" t="s">
         <v>244</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="E102" s="8" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="103" ht="NA" customHeight="1">
@@ -3417,59 +3420,59 @@
         <v>88</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>205</v>
+        <v>108</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>275</v>
+        <v>108</v>
       </c>
       <c r="E103" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="F103" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="F103" s="8" t="n">
+        <v>0.7</v>
       </c>
     </row>
     <row r="104" ht="NA" customHeight="1">
       <c r="A104" s="3" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>107</v>
+        <v>170</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>107</v>
+        <v>245</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>107</v>
+        <v>279</v>
       </c>
       <c r="E104" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="F104" s="8" t="n">
-        <v>0.13</v>
+        <v>296</v>
+      </c>
+      <c r="F104" s="8" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="105" ht="NA" customHeight="1">
       <c r="A105" s="3" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>171</v>
+        <v>129</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="E105" s="8" t="s">
-        <v>289</v>
+        <v>127</v>
       </c>
       <c r="F105" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="106" ht="NA" customHeight="1">
@@ -3477,59 +3480,59 @@
         <v>90</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>172</v>
+        <v>108</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>211</v>
+        <v>108</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>260</v>
+        <v>108</v>
       </c>
       <c r="E106" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="F106" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="F106" s="8" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="107" ht="NA" customHeight="1">
       <c r="A107" s="3" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>107</v>
+        <v>171</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>107</v>
+        <v>246</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>107</v>
+        <v>262</v>
       </c>
       <c r="E107" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="F107" s="8" t="n">
-        <v>0.005</v>
+        <v>290</v>
+      </c>
+      <c r="F107" s="8" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="108" ht="NA" customHeight="1">
       <c r="A108" s="3" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="E108" s="8" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F108" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="109" ht="NA" customHeight="1">
@@ -3537,985 +3540,1025 @@
         <v>92</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>218</v>
+        <v>108</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>275</v>
+        <v>108</v>
       </c>
       <c r="E109" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="F109" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="F109" s="8" t="n">
+        <v>0.003</v>
       </c>
     </row>
     <row r="110" ht="NA" customHeight="1">
       <c r="A110" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="D110" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="E110" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="F110" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="111" ht="NA" customHeight="1">
+      <c r="A111" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B110" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C110" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="D110" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="E110" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="F110" s="8" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="111" ht="NA" customHeight="1">
-      <c r="A111" s="3" t="n">
-        <v>0</v>
-      </c>
       <c r="B111" s="8" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="E111" s="8" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F111" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="112" ht="NA" customHeight="1">
-      <c r="A112" s="3" t="n">
-        <v>1</v>
+      <c r="A112" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="B112" s="8" t="s">
         <v>108</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>247</v>
+        <v>108</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>283</v>
+        <v>108</v>
       </c>
       <c r="E112" s="8" t="s">
-        <v>295</v>
+        <v>108</v>
       </c>
       <c r="F112" s="8" t="s">
-        <v>107</v>
+        <v>302</v>
       </c>
     </row>
     <row r="113" ht="NA" customHeight="1">
       <c r="A113" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="E113" s="8" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F113" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="114" ht="NA" customHeight="1">
       <c r="A114" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>152</v>
+        <v>109</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>125</v>
+        <v>248</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>266</v>
+        <v>284</v>
       </c>
       <c r="E114" s="8" t="s">
         <v>295</v>
       </c>
       <c r="F114" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="115" ht="NA" customHeight="1">
-      <c r="A115" s="3" t="s">
-        <v>94</v>
+      <c r="A115" s="3" t="n">
+        <v>2</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>107</v>
+        <v>147</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>107</v>
+        <v>249</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>107</v>
+        <v>267</v>
       </c>
       <c r="E115" s="8" t="s">
-        <v>107</v>
+        <v>290</v>
       </c>
       <c r="F115" s="8" t="s">
-        <v>301</v>
+        <v>108</v>
       </c>
     </row>
     <row r="116" ht="NA" customHeight="1">
       <c r="A116" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>174</v>
+        <v>143</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>213</v>
+        <v>127</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="E116" s="8" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F116" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="117" ht="NA" customHeight="1">
-      <c r="A117" s="3" t="n">
-        <v>1</v>
+      <c r="A117" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>166</v>
+        <v>108</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>249</v>
+        <v>108</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>272</v>
+        <v>108</v>
       </c>
       <c r="E117" s="8" t="s">
-        <v>295</v>
+        <v>108</v>
       </c>
       <c r="F117" s="8" t="s">
-        <v>107</v>
+        <v>302</v>
       </c>
     </row>
     <row r="118" ht="NA" customHeight="1">
       <c r="A118" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B118" s="8" t="s">
         <v>175</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>156</v>
+        <v>214</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="E118" s="8" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="F118" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="119" ht="NA" customHeight="1">
       <c r="A119" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>125</v>
+        <v>166</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>125</v>
+        <v>273</v>
       </c>
       <c r="E119" s="8" t="s">
-        <v>125</v>
+        <v>295</v>
       </c>
       <c r="F119" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="120" ht="NA" customHeight="1">
-      <c r="A120" s="3" t="s">
-        <v>95</v>
+      <c r="A120" s="3" t="n">
+        <v>2</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>107</v>
+        <v>176</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>107</v>
+        <v>267</v>
       </c>
       <c r="E120" s="8" t="s">
-        <v>107</v>
+        <v>290</v>
       </c>
       <c r="F120" s="8" t="s">
-        <v>301</v>
+        <v>108</v>
       </c>
     </row>
     <row r="121" ht="NA" customHeight="1">
       <c r="A121" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>176</v>
+        <v>127</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>250</v>
+        <v>127</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>271</v>
+        <v>127</v>
       </c>
       <c r="E121" s="8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F121" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="122" ht="NA" customHeight="1">
-      <c r="A122" s="3" t="n">
-        <v>1</v>
+      <c r="A122" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>177</v>
+        <v>108</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>251</v>
+        <v>108</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>281</v>
+        <v>108</v>
       </c>
       <c r="E122" s="8" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="F122" s="8" t="s">
-        <v>107</v>
+        <v>302</v>
       </c>
     </row>
     <row r="123" ht="NA" customHeight="1">
       <c r="A123" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>127</v>
+        <v>177</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>215</v>
+        <v>251</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E123" s="8" t="s">
-        <v>289</v>
+        <v>127</v>
       </c>
       <c r="F123" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="124" ht="NA" customHeight="1">
       <c r="A124" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>137</v>
+        <v>178</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="E124" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F124" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="125" ht="NA" customHeight="1">
+      <c r="A125" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C125" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="D125" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="E125" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="F124" s="8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="125" ht="NA" customHeight="1">
-      <c r="A125" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B125" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C125" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="D125" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="E125" s="8" t="s">
-        <v>107</v>
-      </c>
       <c r="F125" s="8" t="s">
-        <v>301</v>
+        <v>108</v>
       </c>
     </row>
     <row r="126" ht="NA" customHeight="1">
       <c r="A126" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>178</v>
+        <v>139</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="E126" s="8" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F126" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="127" ht="NA" customHeight="1">
-      <c r="A127" s="3" t="n">
-        <v>1</v>
+      <c r="A127" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>179</v>
+        <v>108</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>202</v>
+        <v>108</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>284</v>
+        <v>108</v>
       </c>
       <c r="E127" s="8" t="s">
-        <v>295</v>
+        <v>108</v>
       </c>
       <c r="F127" s="8" t="s">
-        <v>107</v>
+        <v>302</v>
       </c>
     </row>
     <row r="128" ht="NA" customHeight="1">
       <c r="A128" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>137</v>
+        <v>179</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>156</v>
+        <v>253</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E128" s="8" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F128" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="129" ht="NA" customHeight="1">
       <c r="A129" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="E129" s="8" t="s">
         <v>295</v>
       </c>
       <c r="F129" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="130" ht="NA" customHeight="1">
-      <c r="A130" s="3" t="s">
-        <v>97</v>
+      <c r="A130" s="3" t="n">
+        <v>2</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>107</v>
+        <v>261</v>
       </c>
       <c r="E130" s="8" t="s">
-        <v>107</v>
+        <v>297</v>
       </c>
       <c r="F130" s="8" t="s">
-        <v>301</v>
+        <v>108</v>
       </c>
     </row>
     <row r="131" ht="NA" customHeight="1">
       <c r="A131" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>253</v>
+        <v>201</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="E131" s="8" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="F131" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="132" ht="NA" customHeight="1">
-      <c r="A132" s="3" t="n">
-        <v>1</v>
+      <c r="A132" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>181</v>
+        <v>108</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>254</v>
+        <v>108</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>284</v>
+        <v>108</v>
       </c>
       <c r="E132" s="8" t="s">
-        <v>289</v>
+        <v>108</v>
       </c>
       <c r="F132" s="8" t="s">
-        <v>107</v>
+        <v>302</v>
       </c>
     </row>
     <row r="133" ht="NA" customHeight="1">
       <c r="A133" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>200</v>
+        <v>254</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="E133" s="8" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F133" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="134" ht="NA" customHeight="1">
       <c r="A134" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>155</v>
+        <v>182</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>156</v>
+        <v>255</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="E134" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="F134" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="135" ht="NA" customHeight="1">
+      <c r="A135" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="D135" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="E135" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="F134" s="8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="135" ht="NA" customHeight="1">
-      <c r="A135" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B135" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C135" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="D135" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="E135" s="8" t="s">
-        <v>107</v>
-      </c>
       <c r="F135" s="8" t="s">
-        <v>301</v>
+        <v>108</v>
       </c>
     </row>
     <row r="136" ht="NA" customHeight="1">
       <c r="A136" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>192</v>
+        <v>116</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="E136" s="8" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F136" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="137" ht="NA" customHeight="1">
-      <c r="A137" s="3" t="n">
-        <v>1</v>
+      <c r="A137" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>193</v>
+        <v>108</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>271</v>
+        <v>108</v>
       </c>
       <c r="E137" s="8" t="s">
-        <v>289</v>
+        <v>108</v>
       </c>
       <c r="F137" s="8" t="s">
-        <v>107</v>
+        <v>302</v>
       </c>
     </row>
     <row r="138" ht="NA" customHeight="1">
       <c r="A138" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>121</v>
+        <v>184</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>125</v>
+        <v>193</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="E138" s="8" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F138" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="139" ht="NA" customHeight="1">
       <c r="A139" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>125</v>
+        <v>194</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>125</v>
+        <v>272</v>
       </c>
       <c r="E139" s="8" t="s">
-        <v>125</v>
+        <v>290</v>
       </c>
       <c r="F139" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="140" ht="NA" customHeight="1">
-      <c r="A140" s="3" t="s">
-        <v>99</v>
+      <c r="A140" s="3" t="n">
+        <v>2</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>107</v>
+        <v>270</v>
       </c>
       <c r="E140" s="8" t="s">
-        <v>107</v>
+        <v>295</v>
       </c>
       <c r="F140" s="8" t="s">
-        <v>301</v>
+        <v>108</v>
       </c>
     </row>
     <row r="141" ht="NA" customHeight="1">
       <c r="A141" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>167</v>
+        <v>127</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>192</v>
+        <v>127</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>276</v>
+        <v>127</v>
       </c>
       <c r="E141" s="8" t="s">
-        <v>289</v>
+        <v>127</v>
       </c>
       <c r="F141" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="142" ht="NA" customHeight="1">
-      <c r="A142" s="3" t="n">
-        <v>1</v>
+      <c r="A142" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>193</v>
+        <v>108</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>274</v>
+        <v>108</v>
       </c>
       <c r="E142" s="8" t="s">
-        <v>289</v>
+        <v>108</v>
       </c>
       <c r="F142" s="8" t="s">
-        <v>107</v>
+        <v>302</v>
       </c>
     </row>
     <row r="143" ht="NA" customHeight="1">
       <c r="A143" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>125</v>
+        <v>193</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>125</v>
+        <v>277</v>
       </c>
       <c r="E143" s="8" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F143" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="144" ht="NA" customHeight="1">
       <c r="A144" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>125</v>
+        <v>194</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>125</v>
+        <v>275</v>
       </c>
       <c r="E144" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="F144" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="145" ht="NA" customHeight="1">
+      <c r="A145" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B145" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C145" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D145" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E145" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="F144" s="8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="145" ht="NA" customHeight="1">
-      <c r="A145" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B145" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C145" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="D145" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="E145" s="8" t="s">
-        <v>107</v>
-      </c>
       <c r="F145" s="8" t="s">
-        <v>301</v>
+        <v>108</v>
       </c>
     </row>
     <row r="146" ht="NA" customHeight="1">
       <c r="A146" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>183</v>
+        <v>116</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>255</v>
+        <v>127</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>261</v>
+        <v>127</v>
       </c>
       <c r="E146" s="8" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="F146" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="147" ht="NA" customHeight="1">
-      <c r="A147" s="3" t="n">
-        <v>1</v>
+      <c r="A147" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>260</v>
+        <v>108</v>
       </c>
       <c r="E147" s="8" t="s">
-        <v>295</v>
+        <v>108</v>
       </c>
       <c r="F147" s="8" t="s">
-        <v>107</v>
+        <v>302</v>
       </c>
     </row>
     <row r="148" ht="NA" customHeight="1">
       <c r="A148" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>152</v>
+        <v>184</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>125</v>
+        <v>256</v>
       </c>
       <c r="D148" s="8" t="s">
-        <v>125</v>
+        <v>262</v>
       </c>
       <c r="E148" s="8" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F148" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="149" ht="NA" customHeight="1">
       <c r="A149" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>125</v>
+        <v>224</v>
       </c>
       <c r="D149" s="8" t="s">
-        <v>125</v>
+        <v>261</v>
       </c>
       <c r="E149" s="8" t="s">
         <v>295</v>
       </c>
       <c r="F149" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="150" ht="NA" customHeight="1">
-      <c r="A150" s="3" t="s">
-        <v>101</v>
+      <c r="A150" s="3" t="n">
+        <v>2</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="E150" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="F150" s="8" t="n">
-        <v>0.005</v>
+        <v>290</v>
+      </c>
+      <c r="F150" s="8" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="151" ht="NA" customHeight="1">
       <c r="A151" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>184</v>
+        <v>116</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>256</v>
+        <v>127</v>
       </c>
       <c r="D151" s="8" t="s">
-        <v>285</v>
+        <v>127</v>
       </c>
       <c r="E151" s="8" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F151" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="152" ht="NA" customHeight="1">
-      <c r="A152" s="3" t="n">
-        <v>1</v>
+      <c r="A152" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>175</v>
+        <v>108</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="D152" s="8" t="s">
-        <v>269</v>
+        <v>108</v>
       </c>
       <c r="E152" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="F152" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="F152" s="8" t="n">
+        <v>0.007</v>
       </c>
     </row>
     <row r="153" ht="NA" customHeight="1">
       <c r="A153" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>125</v>
+        <v>185</v>
       </c>
       <c r="C153" s="8" t="s">
-        <v>125</v>
+        <v>257</v>
       </c>
       <c r="D153" s="8" t="s">
-        <v>125</v>
+        <v>286</v>
       </c>
       <c r="E153" s="8" t="s">
-        <v>125</v>
+        <v>298</v>
       </c>
       <c r="F153" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="154" ht="NA" customHeight="1">
       <c r="A154" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B154" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C154" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D154" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="E154" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="F154" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="155" ht="NA" customHeight="1">
+      <c r="A155" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B155" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C155" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D155" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E155" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F155" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="156" ht="NA" customHeight="1">
+      <c r="A156" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B154" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="C154" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="D154" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="E154" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="F154" s="8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="155" ht="NA" customHeight="1">
-      <c r="A155" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B155" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="C155" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="D155" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="E155" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="F155" s="9" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="156" ht="NA" customHeight="1">
-      <c r="A156" s="5" t="s">
+      <c r="B156" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C156" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D156" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E156" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F156" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="157" ht="NA" customHeight="1">
+      <c r="A157" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B156" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C156" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D156" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E156" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="F156" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="157" ht="NA" customHeight="1">
-      <c r="A157" s="3" t="s">
+      <c r="B157" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="C157" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="D157" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="E157" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="F157" s="9" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="158" ht="NA" customHeight="1">
+      <c r="A158" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B157" s="3" t="s">
+      <c r="B158" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C157" s="3" t="s">
+      <c r="C158" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D157" s="3" t="s">
+      <c r="D158" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="E157" s="3" t="s">
+      <c r="E158" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="F157" s="3" t="s">
+      <c r="F158" s="5" t="s">
         <v>104</v>
+      </c>
+    </row>
+    <row r="159" ht="NA" customHeight="1">
+      <c r="A159" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F159" s="3" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A156:F156"/>
-    <mergeCell ref="A157:F157"/>
+    <mergeCell ref="A158:F158"/>
+    <mergeCell ref="A159:F159"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/output/table_2.xlsx
+++ b/output/table_2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="302">
   <si>
     <t xml:space="preserve">Characteristic
 </t>
@@ -48,30 +48,30 @@
     <t xml:space="preserve">     Chinese</t>
   </si>
   <si>
+    <t xml:space="preserve">Marital status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     single</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     married</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     divorced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     widow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Bangkok</t>
+  </si>
+  <si>
     <t xml:space="preserve">     others</t>
   </si>
   <si>
-    <t xml:space="preserve">Marital status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     single</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     married</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     divorced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     widow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Bangkok</t>
-  </si>
-  <si>
     <t xml:space="preserve">Education</t>
   </si>
   <si>
@@ -150,10 +150,7 @@
     <t xml:space="preserve">     Bedbound</t>
   </si>
   <si>
-    <t xml:space="preserve">Hearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Hearing aid</t>
+    <t xml:space="preserve">PatientHearing</t>
   </si>
   <si>
     <t xml:space="preserve">     Hearing impairment</t>
@@ -359,135 +356,138 @@
     <t xml:space="preserve">23.5 (21.3, 25.7)</t>
   </si>
   <si>
-    <t xml:space="preserve">262 (96%)</t>
+    <t xml:space="preserve">263 (97%)</t>
   </si>
   <si>
     <t xml:space="preserve">9 (3.3%)</t>
   </si>
   <si>
+    <t xml:space="preserve">50 (18%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">172 (63%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 (3.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40 (15%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">182 (67%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90 (33%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (1.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36 (13%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42 (15%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">191 (70%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 (0%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">93 (34%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23 (8.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 (8.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">132 (49%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52 (19%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44 (16%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66 (24%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60 (22%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">221 (81%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18 (6.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 (7.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 (4.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">260 (96%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 (4.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">257 (94%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 (5.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100 (37%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">234 (86%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (2.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32 (12%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">247 (91%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22 (8.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">255 (94%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 (2.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115 (42%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">155 (57%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (0.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">230 (85%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35 (13%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (1.8%)</t>
+  </si>
+  <si>
     <t xml:space="preserve">1 (0.4%)</t>
   </si>
   <si>
-    <t xml:space="preserve">50 (18%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">172 (63%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 (3.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40 (15%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">182 (67%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90 (33%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (1.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36 (13%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42 (15%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">191 (70%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 (0%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">93 (34%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23 (8.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24 (8.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">132 (49%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52 (19%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44 (16%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66 (24%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60 (22%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">221 (81%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18 (6.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20 (7.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13 (4.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">260 (96%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 (4.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">255 (94%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (0.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15 (5.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100 (37%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">234 (86%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (2.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32 (12%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">247 (91%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22 (8.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 (2.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115 (42%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">155 (57%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">230 (85%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35 (13%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (1.8%)</t>
-  </si>
-  <si>
     <t xml:space="preserve">111 (41%)</t>
   </si>
   <si>
@@ -534,9 +534,6 @@
   </si>
   <si>
     <t xml:space="preserve">75 (28%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">257 (94%)</t>
   </si>
   <si>
     <t xml:space="preserve">186 (68%)</t>
@@ -678,7 +675,7 @@
     <t xml:space="preserve">9 (3.9%)</t>
   </si>
   <si>
-    <t xml:space="preserve">221 (95%)</t>
+    <t xml:space="preserve">223 (96%)</t>
   </si>
   <si>
     <t xml:space="preserve">144 (62%)</t>
@@ -905,6 +902,9 @@
     <t xml:space="preserve">20.9 (19.9, 22.0)</t>
   </si>
   <si>
+    <t xml:space="preserve">5 (83%)</t>
+  </si>
+  <si>
     <t xml:space="preserve">1 (17%)</t>
   </si>
   <si>
@@ -912,9 +912,6 @@
   </si>
   <si>
     <t xml:space="preserve">3 (50%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (83%)</t>
   </si>
   <si>
     <t xml:space="preserve">11 (9, 13)</t>
@@ -1380,19 +1377,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="2" ht="NA" customHeight="1">
@@ -1400,16 +1397,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F2" s="7" t="n">
         <v>0.02</v>
@@ -1420,19 +1417,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" ht="NA" customHeight="1">
@@ -1440,19 +1437,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" ht="NA" customHeight="1">
@@ -1460,19 +1457,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" ht="NA" customHeight="1">
@@ -1480,16 +1477,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F6" s="8" t="n">
         <v>0.3</v>
@@ -1500,16 +1497,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F7" s="8" t="n">
         <v>0.3</v>
@@ -1520,16 +1517,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F8" s="8" t="n">
         <v>0.017</v>
@@ -1540,19 +1537,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F9" s="8" t="n">
-        <v>0.008</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="10" ht="NA" customHeight="1">
@@ -1560,19 +1557,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" ht="NA" customHeight="1">
@@ -1580,19 +1577,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>295</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" ht="NA" customHeight="1">
@@ -1600,19 +1597,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
+      </c>
+      <c r="F12" s="8" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="13" ht="NA" customHeight="1">
@@ -1620,19 +1617,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>108</v>
+        <v>194</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>108</v>
+        <v>267</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="F13" s="8" t="n">
-        <v>0.5</v>
+        <v>125</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="14" ht="NA" customHeight="1">
@@ -1640,7 +1637,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>195</v>
@@ -1649,10 +1646,10 @@
         <v>268</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>127</v>
+        <v>290</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" ht="NA" customHeight="1">
@@ -1660,7 +1657,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>196</v>
@@ -1669,10 +1666,10 @@
         <v>269</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>291</v>
+        <v>125</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" ht="NA" customHeight="1">
@@ -1680,7 +1677,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>197</v>
@@ -1689,10 +1686,10 @@
         <v>270</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>127</v>
+        <v>289</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" ht="NA" customHeight="1">
@@ -1700,19 +1697,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>198</v>
+        <v>107</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>271</v>
+        <v>107</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
+      </c>
+      <c r="F17" s="8" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="18" ht="NA" customHeight="1">
@@ -1720,19 +1717,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>108</v>
+        <v>198</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>108</v>
+        <v>261</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="F18" s="8" t="n">
-        <v>0.2</v>
+        <v>296</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="19" ht="NA" customHeight="1">
@@ -1740,187 +1737,187 @@
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>199</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>296</v>
+        <v>125</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" ht="NA" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>200</v>
+        <v>107</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>261</v>
+        <v>107</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
+      </c>
+      <c r="F20" s="8" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="21" ht="NA" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>108</v>
+        <v>200</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>108</v>
+        <v>266</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="F21" s="8" t="n">
-        <v>0.13</v>
+        <v>125</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="22" ht="NA" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>201</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>127</v>
+        <v>295</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" ht="NA" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>202</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>295</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" ht="NA" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>203</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" ht="NA" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>204</v>
+        <v>125</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>273</v>
+        <v>125</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>291</v>
+        <v>125</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" ht="NA" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
+      </c>
+      <c r="F26" s="8" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="27" ht="NA" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>108</v>
+        <v>204</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>108</v>
+        <v>272</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="F27" s="8" t="n">
-        <v>0.3</v>
+        <v>295</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="28" ht="NA" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>205</v>
@@ -1932,95 +1929,95 @@
         <v>295</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" ht="NA" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>206</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>295</v>
+        <v>125</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" ht="NA" customHeight="1">
       <c r="A30" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>207</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>127</v>
+        <v>290</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" ht="NA" customHeight="1">
       <c r="A31" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>208</v>
+        <v>107</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>275</v>
+        <v>107</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
+      </c>
+      <c r="F31" s="8" t="n">
+        <v>0.067</v>
       </c>
     </row>
     <row r="32" ht="NA" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>108</v>
+        <v>208</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>108</v>
+        <v>274</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="F32" s="8" t="n">
-        <v>0.081</v>
+        <v>295</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="33" ht="NA" customHeight="1">
       <c r="A33" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>209</v>
@@ -2029,350 +2026,350 @@
         <v>275</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" ht="NA" customHeight="1">
       <c r="A34" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>210</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>297</v>
+        <v>125</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" ht="NA" customHeight="1">
       <c r="A35" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>211</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" ht="NA" customHeight="1">
       <c r="A36" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>212</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>127</v>
+        <v>289</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37" ht="NA" customHeight="1">
       <c r="A37" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>213</v>
+        <v>107</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>261</v>
+        <v>107</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
+      </c>
+      <c r="F37" s="8" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="38" ht="NA" customHeight="1">
       <c r="A38" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>108</v>
+        <v>213</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>108</v>
+        <v>276</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="F38" s="8" t="n">
-        <v>0.2</v>
+        <v>294</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="39" ht="NA" customHeight="1">
       <c r="A39" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>214</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>298</v>
+        <v>125</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40" ht="NA" customHeight="1">
       <c r="A40" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>215</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>127</v>
+        <v>295</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41" ht="NA" customHeight="1">
       <c r="A41" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>216</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>295</v>
+        <v>125</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42" ht="NA" customHeight="1">
       <c r="A42" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>217</v>
+        <v>107</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>274</v>
+        <v>107</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
+      </c>
+      <c r="F42" s="8" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="43" ht="NA" customHeight="1">
       <c r="A43" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>108</v>
+        <v>217</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>108</v>
+        <v>277</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="F43" s="8" t="n">
-        <v>0.4</v>
+        <v>296</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="44" ht="NA" customHeight="1">
       <c r="A44" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>218</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>296</v>
+        <v>125</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45" ht="NA" customHeight="1">
       <c r="A45" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>219</v>
+        <v>125</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>274</v>
+        <v>125</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="46" ht="NA" customHeight="1">
       <c r="A46" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
+      </c>
+      <c r="F46" s="8" t="n">
+        <v>0.07</v>
       </c>
     </row>
     <row r="47" ht="NA" customHeight="1">
       <c r="A47" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>108</v>
+        <v>219</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>108</v>
+        <v>278</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="F47" s="8" t="n">
-        <v>0.2</v>
+        <v>294</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="48" ht="NA" customHeight="1">
       <c r="A48" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="49" ht="NA" customHeight="1">
       <c r="A49" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>201</v>
+        <v>107</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
+      </c>
+      <c r="F49" s="8" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="50" ht="NA" customHeight="1">
       <c r="A50" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="51" ht="NA" customHeight="1">
@@ -2380,319 +2377,319 @@
         <v>48</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>108</v>
+        <v>142</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>108</v>
+        <v>221</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>108</v>
+        <v>260</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="F51" s="8" t="n">
-        <v>0.4</v>
+        <v>289</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="52" ht="NA" customHeight="1">
       <c r="A52" s="3" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>221</v>
+        <v>125</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>262</v>
+        <v>125</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>291</v>
+        <v>125</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="53" ht="NA" customHeight="1">
       <c r="A53" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>222</v>
+        <v>107</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>261</v>
+        <v>107</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="F53" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
+      </c>
+      <c r="F53" s="8" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="54" ht="NA" customHeight="1">
       <c r="A54" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>127</v>
+        <v>222</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>127</v>
+        <v>279</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>127</v>
+        <v>296</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="55" ht="NA" customHeight="1">
       <c r="A55" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>108</v>
+        <v>223</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>108</v>
+        <v>266</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="F55" s="8" t="n">
-        <v>0.5</v>
+        <v>125</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="56" ht="NA" customHeight="1">
       <c r="A56" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>296</v>
+        <v>125</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="57" ht="NA" customHeight="1">
       <c r="A57" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>147</v>
+        <v>107</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>224</v>
+        <v>107</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>267</v>
+        <v>107</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="F57" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
+      </c>
+      <c r="F57" s="8" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="58" ht="NA" customHeight="1">
       <c r="A58" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C58" s="8" t="s">
         <v>225</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>127</v>
+        <v>296</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="59" ht="NA" customHeight="1">
       <c r="A59" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>108</v>
+        <v>147</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>108</v>
+        <v>205</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>108</v>
+        <v>273</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="F59" s="8" t="n">
-        <v>0.5</v>
+        <v>125</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="60" ht="NA" customHeight="1">
       <c r="A60" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>296</v>
+        <v>125</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="61" ht="NA" customHeight="1">
       <c r="A61" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>150</v>
+        <v>107</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>274</v>
+        <v>107</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="F61" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
+      </c>
+      <c r="F61" s="8" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="62" ht="NA" customHeight="1">
       <c r="A62" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>127</v>
+        <v>294</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="63" ht="NA" customHeight="1">
       <c r="A63" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>108</v>
+        <v>193</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>108</v>
+        <v>269</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="F63" s="8" t="n">
-        <v>0.036</v>
+        <v>295</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="64" ht="NA" customHeight="1">
       <c r="A64" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>227</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>298</v>
+        <v>125</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="65" ht="NA" customHeight="1">
       <c r="A65" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>194</v>
+        <v>107</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>270</v>
+        <v>107</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="F65" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
+      </c>
+      <c r="F65" s="8" t="n">
+        <v>0.003</v>
       </c>
     </row>
     <row r="66" ht="NA" customHeight="1">
       <c r="A66" s="3" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C66" s="8" t="s">
         <v>228</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>127</v>
+        <v>295</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="67" ht="NA" customHeight="1">
@@ -2700,359 +2697,359 @@
         <v>63</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>108</v>
+        <v>151</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>108</v>
+        <v>229</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>108</v>
+        <v>279</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="F67" s="8" t="n">
-        <v>0.002</v>
+        <v>290</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="68" ht="NA" customHeight="1">
       <c r="A68" s="3" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="B68" s="8" t="s">
         <v>152</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>229</v>
+        <v>156</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>271</v>
+        <v>125</v>
       </c>
       <c r="E68" s="8" t="s">
         <v>295</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="69" ht="NA" customHeight="1">
       <c r="A69" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B69" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F69" s="8" t="n">
+        <v>0.003</v>
+      </c>
+    </row>
+    <row r="70" ht="NA" customHeight="1">
+      <c r="A70" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B70" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C70" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="D69" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="E69" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="F69" s="8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="70" ht="NA" customHeight="1">
-      <c r="A70" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B70" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>116</v>
-      </c>
       <c r="D70" s="8" t="s">
-        <v>127</v>
+        <v>276</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="71" ht="NA" customHeight="1">
-      <c r="A71" s="3" t="s">
-        <v>66</v>
+      <c r="A71" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>108</v>
+        <v>154</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>108</v>
+        <v>231</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>108</v>
+        <v>260</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="F71" s="8" t="n">
-        <v>0.003</v>
+        <v>289</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="72" ht="NA" customHeight="1">
       <c r="A72" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>277</v>
+        <v>125</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>291</v>
+        <v>125</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="73" ht="NA" customHeight="1">
       <c r="A73" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>232</v>
+        <v>125</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>290</v>
+        <v>125</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="74" ht="NA" customHeight="1">
-      <c r="A74" s="3" t="n">
-        <v>2</v>
+      <c r="A74" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="B74" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F74" s="8" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="75" ht="NA" customHeight="1">
+      <c r="A75" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B75" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="C74" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="D74" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="E74" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="F74" s="8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="75" ht="NA" customHeight="1">
-      <c r="A75" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>143</v>
-      </c>
       <c r="C75" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="76" ht="NA" customHeight="1">
       <c r="A76" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>108</v>
+        <v>200</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>108</v>
+        <v>266</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>108</v>
+        <v>297</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>302</v>
+        <v>107</v>
       </c>
     </row>
     <row r="77" ht="NA" customHeight="1">
       <c r="A77" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>116</v>
+        <v>157</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>127</v>
+        <v>232</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>127</v>
+        <v>295</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="78" ht="NA" customHeight="1">
       <c r="A78" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>201</v>
+        <v>233</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="79" ht="NA" customHeight="1">
       <c r="A79" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>233</v>
+        <v>206</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>277</v>
+        <v>125</v>
       </c>
       <c r="E79" s="8" t="s">
         <v>295</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="80" ht="NA" customHeight="1">
       <c r="A80" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>158</v>
+        <v>107</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>234</v>
+        <v>107</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>261</v>
+        <v>107</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="F80" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
+      </c>
+      <c r="F80" s="8" t="n">
+        <v>0.058</v>
       </c>
     </row>
     <row r="81" ht="NA" customHeight="1">
       <c r="A81" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>129</v>
+        <v>159</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>127</v>
+        <v>279</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="82" ht="NA" customHeight="1">
       <c r="A82" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>108</v>
+        <v>160</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>108</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>108</v>
+        <v>270</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="F82" s="8" t="n">
-        <v>0.053</v>
+        <v>289</v>
+      </c>
+      <c r="F82" s="8" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="83" ht="NA" customHeight="1">
       <c r="A83" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>159</v>
+        <v>107</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>235</v>
+        <v>107</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>280</v>
+        <v>107</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="F83" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
+      </c>
+      <c r="F83" s="8" t="n">
+        <v>0.6</v>
       </c>
     </row>
     <row r="84" ht="NA" customHeight="1">
       <c r="A84" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C84" s="8" t="s">
         <v>236</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="85" ht="NA" customHeight="1">
@@ -3060,59 +3057,59 @@
         <v>76</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>108</v>
+        <v>237</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>108</v>
+        <v>278</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="F85" s="8" t="n">
-        <v>0.6</v>
+        <v>294</v>
+      </c>
+      <c r="F85" s="8" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="86" ht="NA" customHeight="1">
       <c r="A86" s="3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>161</v>
+        <v>107</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>237</v>
+        <v>107</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>276</v>
+        <v>107</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="F86" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
+      </c>
+      <c r="F86" s="8" t="n">
+        <v>0.007</v>
       </c>
     </row>
     <row r="87" ht="NA" customHeight="1">
       <c r="A87" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C87" s="8" t="s">
         <v>238</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="88" ht="NA" customHeight="1">
@@ -3120,59 +3117,59 @@
         <v>78</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>108</v>
+        <v>164</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>108</v>
+        <v>215</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>108</v>
+        <v>273</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="F88" s="8" t="n">
-        <v>0.007</v>
+        <v>297</v>
+      </c>
+      <c r="F88" s="8" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="89" ht="NA" customHeight="1">
       <c r="A89" s="3" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>239</v>
+        <v>107</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>278</v>
+        <v>107</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="F89" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
+      </c>
+      <c r="F89" s="8" t="n">
+        <v>0.002</v>
       </c>
     </row>
     <row r="90" ht="NA" customHeight="1">
       <c r="A90" s="3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>216</v>
+        <v>239</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="91" ht="NA" customHeight="1">
@@ -3180,59 +3177,59 @@
         <v>80</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>108</v>
+        <v>166</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>108</v>
+        <v>240</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>108</v>
+        <v>270</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="F91" s="8" t="n">
-        <v>0.002</v>
+        <v>294</v>
+      </c>
+      <c r="F91" s="8" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="92" ht="NA" customHeight="1">
       <c r="A92" s="3" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>165</v>
+        <v>107</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>240</v>
+        <v>107</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>280</v>
+        <v>107</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="F92" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
+      </c>
+      <c r="F92" s="8" t="n">
+        <v>0.019</v>
       </c>
     </row>
     <row r="93" ht="NA" customHeight="1">
       <c r="A93" s="3" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="94" ht="NA" customHeight="1">
@@ -3240,59 +3237,59 @@
         <v>82</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>108</v>
+        <v>147</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>108</v>
+        <v>215</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>108</v>
+        <v>267</v>
       </c>
       <c r="E94" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="F94" s="8" t="n">
-        <v>0.018</v>
+        <v>289</v>
+      </c>
+      <c r="F94" s="8" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="95" ht="NA" customHeight="1">
       <c r="A95" s="3" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>167</v>
+        <v>107</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>239</v>
+        <v>107</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>281</v>
+        <v>107</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="F95" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
+      </c>
+      <c r="F95" s="8" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="96" ht="NA" customHeight="1">
       <c r="A96" s="3" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="E96" s="8" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="97" ht="NA" customHeight="1">
@@ -3300,59 +3297,59 @@
         <v>84</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>108</v>
+        <v>169</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>108</v>
+        <v>212</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>108</v>
+        <v>274</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="F97" s="8" t="n">
-        <v>0.3</v>
+        <v>295</v>
+      </c>
+      <c r="F97" s="8" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="98" ht="NA" customHeight="1">
       <c r="A98" s="3" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>168</v>
+        <v>107</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>242</v>
+        <v>107</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>277</v>
+        <v>107</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="F98" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
+      </c>
+      <c r="F98" s="8" t="n">
+        <v>0.016</v>
       </c>
     </row>
     <row r="99" ht="NA" customHeight="1">
       <c r="A99" s="3" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>169</v>
+        <v>116</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>213</v>
+        <v>242</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="E99" s="8" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="100" ht="NA" customHeight="1">
@@ -3360,59 +3357,59 @@
         <v>86</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>108</v>
+        <v>142</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>108</v>
+        <v>243</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>108</v>
+        <v>282</v>
       </c>
       <c r="E100" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="F100" s="8" t="n">
-        <v>0.018</v>
+        <v>290</v>
+      </c>
+      <c r="F100" s="8" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="101" ht="NA" customHeight="1">
       <c r="A101" s="3" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>243</v>
+        <v>107</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>282</v>
+        <v>107</v>
       </c>
       <c r="E101" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="F101" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
+      </c>
+      <c r="F101" s="8" t="n">
+        <v>0.7</v>
       </c>
     </row>
     <row r="102" ht="NA" customHeight="1">
       <c r="A102" s="3" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="C102" s="8" t="s">
         <v>244</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="E102" s="8" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="103" ht="NA" customHeight="1">
@@ -3420,59 +3417,59 @@
         <v>88</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>108</v>
+        <v>205</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>108</v>
+        <v>275</v>
       </c>
       <c r="E103" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="F103" s="8" t="n">
-        <v>0.7</v>
+        <v>125</v>
+      </c>
+      <c r="F103" s="8" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="104" ht="NA" customHeight="1">
       <c r="A104" s="3" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>170</v>
+        <v>107</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>245</v>
+        <v>107</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>279</v>
+        <v>107</v>
       </c>
       <c r="E104" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="F104" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
+      </c>
+      <c r="F104" s="8" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="105" ht="NA" customHeight="1">
       <c r="A105" s="3" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>206</v>
+        <v>245</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="E105" s="8" t="s">
-        <v>127</v>
+        <v>289</v>
       </c>
       <c r="F105" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="106" ht="NA" customHeight="1">
@@ -3480,59 +3477,59 @@
         <v>90</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>108</v>
+        <v>172</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>108</v>
+        <v>211</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>108</v>
+        <v>260</v>
       </c>
       <c r="E106" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="F106" s="8" t="n">
-        <v>0.13</v>
+        <v>290</v>
+      </c>
+      <c r="F106" s="8" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="107" ht="NA" customHeight="1">
       <c r="A107" s="3" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>171</v>
+        <v>107</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>246</v>
+        <v>107</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>262</v>
+        <v>107</v>
       </c>
       <c r="E107" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="F107" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
+      </c>
+      <c r="F107" s="8" t="n">
+        <v>0.008</v>
       </c>
     </row>
     <row r="108" ht="NA" customHeight="1">
       <c r="A108" s="3" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>172</v>
+        <v>140</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="E108" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F108" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="109" ht="NA" customHeight="1">
@@ -3540,1025 +3537,985 @@
         <v>92</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>108</v>
+        <v>218</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>108</v>
+        <v>275</v>
       </c>
       <c r="E109" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="F109" s="8" t="n">
-        <v>0.003</v>
+        <v>289</v>
+      </c>
+      <c r="F109" s="8" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="110" ht="NA" customHeight="1">
       <c r="A110" s="3" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="B110" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D110" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E110" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F110" s="8" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="111" ht="NA" customHeight="1">
+      <c r="A111" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B111" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="C110" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="D110" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="E110" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="F110" s="8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="111" ht="NA" customHeight="1">
-      <c r="A111" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B111" s="8" t="s">
-        <v>144</v>
-      </c>
       <c r="C111" s="8" t="s">
-        <v>219</v>
+        <v>246</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="E111" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F111" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="112" ht="NA" customHeight="1">
-      <c r="A112" s="3" t="s">
-        <v>94</v>
+      <c r="A112" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="B112" s="8" t="s">
         <v>108</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>108</v>
+        <v>247</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>108</v>
+        <v>283</v>
       </c>
       <c r="E112" s="8" t="s">
-        <v>108</v>
+        <v>295</v>
       </c>
       <c r="F112" s="8" t="s">
-        <v>302</v>
+        <v>107</v>
       </c>
     </row>
     <row r="113" ht="NA" customHeight="1">
       <c r="A113" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E113" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F113" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="114" ht="NA" customHeight="1">
       <c r="A114" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>248</v>
+        <v>125</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="E114" s="8" t="s">
         <v>295</v>
       </c>
       <c r="F114" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="115" ht="NA" customHeight="1">
-      <c r="A115" s="3" t="n">
-        <v>2</v>
+      <c r="A115" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>147</v>
+        <v>107</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>249</v>
+        <v>107</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>267</v>
+        <v>107</v>
       </c>
       <c r="E115" s="8" t="s">
-        <v>290</v>
+        <v>107</v>
       </c>
       <c r="F115" s="8" t="s">
-        <v>108</v>
+        <v>301</v>
       </c>
     </row>
     <row r="116" ht="NA" customHeight="1">
       <c r="A116" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>127</v>
+        <v>213</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="E116" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="F116" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="117" ht="NA" customHeight="1">
+      <c r="A117" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="D117" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="E117" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="F116" s="8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="117" ht="NA" customHeight="1">
-      <c r="A117" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B117" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C117" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="D117" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="E117" s="8" t="s">
-        <v>108</v>
-      </c>
       <c r="F117" s="8" t="s">
-        <v>302</v>
+        <v>107</v>
       </c>
     </row>
     <row r="118" ht="NA" customHeight="1">
       <c r="A118" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B118" s="8" t="s">
         <v>175</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>214</v>
+        <v>156</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="E118" s="8" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="F118" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="119" ht="NA" customHeight="1">
       <c r="A119" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>166</v>
+        <v>125</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>250</v>
+        <v>125</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>273</v>
+        <v>125</v>
       </c>
       <c r="E119" s="8" t="s">
-        <v>295</v>
+        <v>125</v>
       </c>
       <c r="F119" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="120" ht="NA" customHeight="1">
-      <c r="A120" s="3" t="n">
-        <v>2</v>
+      <c r="A120" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>176</v>
+        <v>107</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>267</v>
+        <v>107</v>
       </c>
       <c r="E120" s="8" t="s">
-        <v>290</v>
+        <v>107</v>
       </c>
       <c r="F120" s="8" t="s">
-        <v>108</v>
+        <v>301</v>
       </c>
     </row>
     <row r="121" ht="NA" customHeight="1">
       <c r="A121" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>127</v>
+        <v>176</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>127</v>
+        <v>250</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>127</v>
+        <v>271</v>
       </c>
       <c r="E121" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F121" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="122" ht="NA" customHeight="1">
-      <c r="A122" s="3" t="s">
-        <v>96</v>
+      <c r="A122" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>108</v>
+        <v>177</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>108</v>
+        <v>251</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>108</v>
+        <v>281</v>
       </c>
       <c r="E122" s="8" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="F122" s="8" t="s">
-        <v>302</v>
+        <v>107</v>
       </c>
     </row>
     <row r="123" ht="NA" customHeight="1">
       <c r="A123" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>177</v>
+        <v>127</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E123" s="8" t="s">
-        <v>127</v>
+        <v>289</v>
       </c>
       <c r="F123" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="124" ht="NA" customHeight="1">
       <c r="A124" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>178</v>
+        <v>137</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="E124" s="8" t="s">
-        <v>127</v>
+        <v>290</v>
       </c>
       <c r="F124" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="125" ht="NA" customHeight="1">
-      <c r="A125" s="3" t="n">
-        <v>2</v>
+      <c r="A125" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>216</v>
+        <v>107</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>272</v>
+        <v>107</v>
       </c>
       <c r="E125" s="8" t="s">
-        <v>290</v>
+        <v>107</v>
       </c>
       <c r="F125" s="8" t="s">
-        <v>108</v>
+        <v>301</v>
       </c>
     </row>
     <row r="126" ht="NA" customHeight="1">
       <c r="A126" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>139</v>
+        <v>178</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="E126" s="8" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="F126" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="127" ht="NA" customHeight="1">
-      <c r="A127" s="3" t="s">
-        <v>97</v>
+      <c r="A127" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>108</v>
+        <v>179</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>108</v>
+        <v>202</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>108</v>
+        <v>284</v>
       </c>
       <c r="E127" s="8" t="s">
-        <v>108</v>
+        <v>295</v>
       </c>
       <c r="F127" s="8" t="s">
-        <v>302</v>
+        <v>107</v>
       </c>
     </row>
     <row r="128" ht="NA" customHeight="1">
       <c r="A128" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>179</v>
+        <v>137</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>253</v>
+        <v>156</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E128" s="8" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F128" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="129" ht="NA" customHeight="1">
       <c r="A129" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="E129" s="8" t="s">
         <v>295</v>
       </c>
       <c r="F129" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="130" ht="NA" customHeight="1">
-      <c r="A130" s="3" t="n">
-        <v>2</v>
+      <c r="A130" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>261</v>
+        <v>107</v>
       </c>
       <c r="E130" s="8" t="s">
-        <v>297</v>
+        <v>107</v>
       </c>
       <c r="F130" s="8" t="s">
-        <v>108</v>
+        <v>301</v>
       </c>
     </row>
     <row r="131" ht="NA" customHeight="1">
       <c r="A131" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>201</v>
+        <v>253</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="E131" s="8" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="F131" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="132" ht="NA" customHeight="1">
-      <c r="A132" s="3" t="s">
-        <v>98</v>
+      <c r="A132" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>108</v>
+        <v>181</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>108</v>
+        <v>254</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>108</v>
+        <v>284</v>
       </c>
       <c r="E132" s="8" t="s">
-        <v>108</v>
+        <v>289</v>
       </c>
       <c r="F132" s="8" t="s">
-        <v>302</v>
+        <v>107</v>
       </c>
     </row>
     <row r="133" ht="NA" customHeight="1">
       <c r="A133" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>254</v>
+        <v>200</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="E133" s="8" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="F133" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="134" ht="NA" customHeight="1">
       <c r="A134" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>255</v>
+        <v>156</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="E134" s="8" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="F134" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="135" ht="NA" customHeight="1">
-      <c r="A135" s="3" t="n">
-        <v>2</v>
+      <c r="A135" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>183</v>
+        <v>107</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>201</v>
+        <v>107</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>268</v>
+        <v>107</v>
       </c>
       <c r="E135" s="8" t="s">
-        <v>295</v>
+        <v>107</v>
       </c>
       <c r="F135" s="8" t="s">
-        <v>108</v>
+        <v>301</v>
       </c>
     </row>
     <row r="136" ht="NA" customHeight="1">
       <c r="A136" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>156</v>
+        <v>183</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>116</v>
+        <v>192</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="E136" s="8" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F136" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="137" ht="NA" customHeight="1">
-      <c r="A137" s="3" t="s">
-        <v>99</v>
+      <c r="A137" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>108</v>
+        <v>193</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>108</v>
+        <v>271</v>
       </c>
       <c r="E137" s="8" t="s">
-        <v>108</v>
+        <v>289</v>
       </c>
       <c r="F137" s="8" t="s">
-        <v>302</v>
+        <v>107</v>
       </c>
     </row>
     <row r="138" ht="NA" customHeight="1">
       <c r="A138" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>184</v>
+        <v>121</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>193</v>
+        <v>125</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="E138" s="8" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F138" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="139" ht="NA" customHeight="1">
       <c r="A139" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>194</v>
+        <v>125</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>272</v>
+        <v>125</v>
       </c>
       <c r="E139" s="8" t="s">
-        <v>290</v>
+        <v>125</v>
       </c>
       <c r="F139" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="140" ht="NA" customHeight="1">
-      <c r="A140" s="3" t="n">
-        <v>2</v>
+      <c r="A140" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>270</v>
+        <v>107</v>
       </c>
       <c r="E140" s="8" t="s">
-        <v>295</v>
+        <v>107</v>
       </c>
       <c r="F140" s="8" t="s">
-        <v>108</v>
+        <v>301</v>
       </c>
     </row>
     <row r="141" ht="NA" customHeight="1">
       <c r="A141" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>127</v>
+        <v>192</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>127</v>
+        <v>276</v>
       </c>
       <c r="E141" s="8" t="s">
-        <v>127</v>
+        <v>289</v>
       </c>
       <c r="F141" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="142" ht="NA" customHeight="1">
-      <c r="A142" s="3" t="s">
-        <v>100</v>
+      <c r="A142" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>108</v>
+        <v>193</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>108</v>
+        <v>274</v>
       </c>
       <c r="E142" s="8" t="s">
-        <v>108</v>
+        <v>289</v>
       </c>
       <c r="F142" s="8" t="s">
-        <v>302</v>
+        <v>107</v>
       </c>
     </row>
     <row r="143" ht="NA" customHeight="1">
       <c r="A143" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>193</v>
+        <v>125</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>277</v>
+        <v>125</v>
       </c>
       <c r="E143" s="8" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="F143" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="144" ht="NA" customHeight="1">
       <c r="A144" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>194</v>
+        <v>125</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>275</v>
+        <v>125</v>
       </c>
       <c r="E144" s="8" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="F144" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="145" ht="NA" customHeight="1">
-      <c r="A145" s="3" t="n">
-        <v>2</v>
+      <c r="A145" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="D145" s="8" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="E145" s="8" t="s">
-        <v>295</v>
+        <v>107</v>
       </c>
       <c r="F145" s="8" t="s">
-        <v>108</v>
+        <v>301</v>
       </c>
     </row>
     <row r="146" ht="NA" customHeight="1">
       <c r="A146" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>116</v>
+        <v>183</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>127</v>
+        <v>255</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>127</v>
+        <v>261</v>
       </c>
       <c r="E146" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="F146" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="147" ht="NA" customHeight="1">
+      <c r="A147" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B147" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C147" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D147" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="E147" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="F146" s="8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="147" ht="NA" customHeight="1">
-      <c r="A147" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B147" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C147" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="D147" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="E147" s="8" t="s">
-        <v>108</v>
-      </c>
       <c r="F147" s="8" t="s">
-        <v>302</v>
+        <v>107</v>
       </c>
     </row>
     <row r="148" ht="NA" customHeight="1">
       <c r="A148" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>256</v>
+        <v>125</v>
       </c>
       <c r="D148" s="8" t="s">
-        <v>262</v>
+        <v>125</v>
       </c>
       <c r="E148" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F148" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="149" ht="NA" customHeight="1">
       <c r="A149" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>224</v>
+        <v>125</v>
       </c>
       <c r="D149" s="8" t="s">
-        <v>261</v>
+        <v>125</v>
       </c>
       <c r="E149" s="8" t="s">
         <v>295</v>
       </c>
       <c r="F149" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="150" ht="NA" customHeight="1">
-      <c r="A150" s="3" t="n">
-        <v>2</v>
+      <c r="A150" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="E150" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="F150" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
+      </c>
+      <c r="F150" s="8" t="n">
+        <v>0.004</v>
       </c>
     </row>
     <row r="151" ht="NA" customHeight="1">
       <c r="A151" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>116</v>
+        <v>184</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>127</v>
+        <v>256</v>
       </c>
       <c r="D151" s="8" t="s">
-        <v>127</v>
+        <v>285</v>
       </c>
       <c r="E151" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="F151" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="152" ht="NA" customHeight="1">
+      <c r="A152" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B152" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C152" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D152" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="E152" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="F151" s="8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="152" ht="NA" customHeight="1">
-      <c r="A152" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B152" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C152" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="D152" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="E152" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="F152" s="8" t="n">
-        <v>0.007</v>
+      <c r="F152" s="8" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="153" ht="NA" customHeight="1">
       <c r="A153" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>185</v>
+        <v>125</v>
       </c>
       <c r="C153" s="8" t="s">
-        <v>257</v>
+        <v>125</v>
       </c>
       <c r="D153" s="8" t="s">
-        <v>286</v>
+        <v>125</v>
       </c>
       <c r="E153" s="8" t="s">
-        <v>298</v>
+        <v>125</v>
       </c>
       <c r="F153" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="154" ht="NA" customHeight="1">
       <c r="A154" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>176</v>
+        <v>125</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="D154" s="8" t="s">
-        <v>270</v>
+        <v>125</v>
       </c>
       <c r="E154" s="8" t="s">
-        <v>295</v>
+        <v>125</v>
       </c>
       <c r="F154" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="155" ht="NA" customHeight="1">
-      <c r="A155" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B155" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="C155" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D155" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="E155" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="F155" s="8" t="s">
-        <v>108</v>
+      <c r="A155" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B155" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="C155" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="D155" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="E155" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="F155" s="9" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="156" ht="NA" customHeight="1">
-      <c r="A156" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B156" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="C156" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D156" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="E156" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="F156" s="8" t="s">
-        <v>108</v>
+      <c r="A156" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D156" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E156" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F156" s="5" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="157" ht="NA" customHeight="1">
-      <c r="A157" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B157" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="C157" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="D157" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="E157" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="F157" s="9" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="158" ht="NA" customHeight="1">
-      <c r="A158" s="5" t="s">
+      <c r="A157" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B158" s="5" t="s">
+      <c r="B157" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C158" s="5" t="s">
+      <c r="C157" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D158" s="5" t="s">
+      <c r="D157" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E158" s="5" t="s">
+      <c r="E157" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="F158" s="5" t="s">
+      <c r="F157" s="3" t="s">
         <v>104</v>
-      </c>
-    </row>
-    <row r="159" ht="NA" customHeight="1">
-      <c r="A159" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B159" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C159" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D159" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E159" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F159" s="3" t="s">
-        <v>105</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A158:F158"/>
-    <mergeCell ref="A159:F159"/>
+    <mergeCell ref="A156:F156"/>
+    <mergeCell ref="A157:F157"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
